--- a/lebron_james_per_game_averages.xlsx
+++ b/lebron_james_per_game_averages.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="94">
   <si>
     <t>seas_id</t>
   </si>
   <si>
-    <t>year</t>
+    <t>season_ending_year</t>
   </si>
   <si>
     <t>player_id</t>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>triple_double_avg</t>
+  </si>
+  <si>
+    <t>calendar_year</t>
   </si>
   <si>
     <t>2025</t>
@@ -650,13 +653,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL23"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -771,22 +774,28 @@
       <c r="AL1" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:39">
       <c r="A2">
         <v>32182</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2">
         <v>3462</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="E2">
+        <v>1985</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G2">
         <v>40</v>
@@ -795,10 +804,10 @@
         <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K2">
         <v>19</v>
@@ -876,30 +885,36 @@
         <v>22.3</v>
       </c>
       <c r="AJ2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AK2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AL2" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="AM2">
+        <v>2025</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:39">
       <c r="A3">
         <v>31585</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3">
         <v>3462</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="E3">
+        <v>1985</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G3">
         <v>39</v>
@@ -908,10 +923,10 @@
         <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K3">
         <v>71</v>
@@ -989,30 +1004,36 @@
         <v>25.7</v>
       </c>
       <c r="AJ3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AK3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AL3" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="AM3">
+        <v>2024</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:39">
       <c r="A4">
         <v>30873</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4">
         <v>3463</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="E4">
+        <v>1985</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G4">
         <v>38</v>
@@ -1021,10 +1042,10 @@
         <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K4">
         <v>55</v>
@@ -1102,30 +1123,36 @@
         <v>28.9</v>
       </c>
       <c r="AJ4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AL4" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="AM4">
+        <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:39">
       <c r="A5">
         <v>30150</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5">
         <v>3463</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="E5">
+        <v>1985</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G5">
         <v>37</v>
@@ -1134,10 +1161,10 @@
         <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K5">
         <v>56</v>
@@ -1215,30 +1242,36 @@
         <v>30.3</v>
       </c>
       <c r="AJ5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AL5" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="AM5">
+        <v>2022</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:39">
       <c r="A6">
         <v>29371</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6">
         <v>3463</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="E6">
+        <v>1985</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G6">
         <v>36</v>
@@ -1247,10 +1280,10 @@
         <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K6">
         <v>45</v>
@@ -1328,30 +1361,36 @@
         <v>25</v>
       </c>
       <c r="AJ6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AL6" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="AM6">
+        <v>2021</v>
       </c>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:39">
       <c r="A7">
         <v>28697</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C7">
         <v>3463</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="E7">
+        <v>1985</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G7">
         <v>35</v>
@@ -1360,10 +1399,10 @@
         <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K7">
         <v>67</v>
@@ -1441,30 +1480,36 @@
         <v>25.3</v>
       </c>
       <c r="AJ7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AL7" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="AM7">
+        <v>2020</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:39">
       <c r="A8">
         <v>28009</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8">
         <v>3463</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="E8">
+        <v>1985</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>34</v>
@@ -1473,10 +1518,10 @@
         <v>16</v>
       </c>
       <c r="I8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K8">
         <v>55</v>
@@ -1554,30 +1599,36 @@
         <v>27.4</v>
       </c>
       <c r="AJ8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AL8" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="AM8">
+        <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:39">
       <c r="A9">
         <v>27322</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9">
         <v>3463</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="E9">
+        <v>1985</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G9">
         <v>33</v>
@@ -1586,10 +1637,10 @@
         <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K9">
         <v>82</v>
@@ -1667,30 +1718,36 @@
         <v>27.5</v>
       </c>
       <c r="AJ9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AL9" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="AM9">
+        <v>2018</v>
       </c>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:39">
       <c r="A10">
         <v>26682</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C10">
         <v>3463</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="E10">
+        <v>1985</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10">
         <v>32</v>
@@ -1699,10 +1756,10 @@
         <v>14</v>
       </c>
       <c r="I10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K10">
         <v>74</v>
@@ -1780,30 +1837,36 @@
         <v>26.4</v>
       </c>
       <c r="AJ10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AL10" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="AM10">
+        <v>2017</v>
       </c>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:39">
       <c r="A11">
         <v>26107</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11">
         <v>3463</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="E11">
+        <v>1985</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G11">
         <v>31</v>
@@ -1812,10 +1875,10 @@
         <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K11">
         <v>76</v>
@@ -1893,30 +1956,36 @@
         <v>25.3</v>
       </c>
       <c r="AJ11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AL11" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="AM11">
+        <v>2016</v>
       </c>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:39">
       <c r="A12">
         <v>25491</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12">
         <v>3463</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="E12">
+        <v>1985</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G12">
         <v>30</v>
@@ -1925,10 +1994,10 @@
         <v>12</v>
       </c>
       <c r="I12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K12">
         <v>69</v>
@@ -2006,30 +2075,36 @@
         <v>25.3</v>
       </c>
       <c r="AJ12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AL12" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="AM12">
+        <v>2015</v>
       </c>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:39">
       <c r="A13">
         <v>24853</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13">
         <v>3463</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="E13">
+        <v>1985</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G13">
         <v>29</v>
@@ -2038,10 +2113,10 @@
         <v>11</v>
       </c>
       <c r="I13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K13">
         <v>77</v>
@@ -2119,30 +2194,36 @@
         <v>27.1</v>
       </c>
       <c r="AJ13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AL13" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="AM13">
+        <v>2014</v>
       </c>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:39">
       <c r="A14">
         <v>24275</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C14">
         <v>3463</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="E14">
+        <v>1985</v>
       </c>
       <c r="F14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G14">
         <v>28</v>
@@ -2151,10 +2232,10 @@
         <v>10</v>
       </c>
       <c r="I14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K14">
         <v>76</v>
@@ -2232,30 +2313,36 @@
         <v>26.8</v>
       </c>
       <c r="AJ14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AL14" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="AM14">
+        <v>2013</v>
       </c>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:39">
       <c r="A15">
         <v>23706</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C15">
         <v>3463</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="E15">
+        <v>1985</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G15">
         <v>27</v>
@@ -2264,10 +2351,10 @@
         <v>9</v>
       </c>
       <c r="I15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K15">
         <v>62</v>
@@ -2345,30 +2432,36 @@
         <v>27.1</v>
       </c>
       <c r="AJ15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AK15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AL15" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="AM15">
+        <v>2012</v>
       </c>
     </row>
-    <row r="16" spans="1:38">
+    <row r="16" spans="1:39">
       <c r="A16">
         <v>23116</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C16">
         <v>3463</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="E16">
+        <v>1985</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G16">
         <v>26</v>
@@ -2377,10 +2470,10 @@
         <v>8</v>
       </c>
       <c r="I16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K16">
         <v>79</v>
@@ -2458,30 +2551,36 @@
         <v>26.7</v>
       </c>
       <c r="AJ16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AK16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AL16" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="AM16">
+        <v>2011</v>
       </c>
     </row>
-    <row r="17" spans="1:38">
+    <row r="17" spans="1:39">
       <c r="A17">
         <v>22500</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C17">
         <v>3463</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="E17">
+        <v>1985</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G17">
         <v>25</v>
@@ -2490,10 +2589,10 @@
         <v>7</v>
       </c>
       <c r="I17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K17">
         <v>76</v>
@@ -2571,30 +2670,36 @@
         <v>29.7</v>
       </c>
       <c r="AJ17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AK17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AL17" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="AM17">
+        <v>2010</v>
       </c>
     </row>
-    <row r="18" spans="1:38">
+    <row r="18" spans="1:39">
       <c r="A18">
         <v>21909</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C18">
         <v>3463</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="E18">
+        <v>1985</v>
       </c>
       <c r="F18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G18">
         <v>24</v>
@@ -2603,10 +2708,10 @@
         <v>6</v>
       </c>
       <c r="I18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K18">
         <v>81</v>
@@ -2684,30 +2789,36 @@
         <v>28.4</v>
       </c>
       <c r="AJ18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AK18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AL18" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="AM18">
+        <v>2009</v>
       </c>
     </row>
-    <row r="19" spans="1:38">
+    <row r="19" spans="1:39">
       <c r="A19">
         <v>21320</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C19">
         <v>3463</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="E19">
+        <v>1985</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G19">
         <v>23</v>
@@ -2716,10 +2827,10 @@
         <v>5</v>
       </c>
       <c r="I19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K19">
         <v>75</v>
@@ -2797,30 +2908,36 @@
         <v>30</v>
       </c>
       <c r="AJ19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AK19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AL19" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="AM19">
+        <v>2008</v>
       </c>
     </row>
-    <row r="20" spans="1:38">
+    <row r="20" spans="1:39">
       <c r="A20">
         <v>20761</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C20">
         <v>3463</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="E20">
+        <v>1985</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G20">
         <v>22</v>
@@ -2829,10 +2946,10 @@
         <v>4</v>
       </c>
       <c r="I20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K20">
         <v>78</v>
@@ -2910,30 +3027,36 @@
         <v>27.3</v>
       </c>
       <c r="AJ20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AK20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AL20" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="AM20">
+        <v>2007</v>
       </c>
     </row>
-    <row r="21" spans="1:38">
+    <row r="21" spans="1:39">
       <c r="A21">
         <v>20211</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C21">
         <v>3463</v>
       </c>
       <c r="D21" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="E21">
+        <v>1985</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G21">
         <v>21</v>
@@ -2942,10 +3065,10 @@
         <v>3</v>
       </c>
       <c r="I21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K21">
         <v>79</v>
@@ -3023,30 +3146,36 @@
         <v>31.4</v>
       </c>
       <c r="AJ21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AK21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AL21" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="AM21">
+        <v>2006</v>
       </c>
     </row>
-    <row r="22" spans="1:38">
+    <row r="22" spans="1:39">
       <c r="A22">
         <v>19652</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C22">
         <v>3463</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="E22">
+        <v>1985</v>
       </c>
       <c r="F22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G22">
         <v>20</v>
@@ -3055,10 +3184,10 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K22">
         <v>80</v>
@@ -3136,30 +3265,36 @@
         <v>27.2</v>
       </c>
       <c r="AJ22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AK22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AL22" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="AM22">
+        <v>2005</v>
       </c>
     </row>
-    <row r="23" spans="1:38">
+    <row r="23" spans="1:39">
       <c r="A23">
         <v>19051</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C23">
         <v>3463</v>
       </c>
       <c r="D23" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="E23">
+        <v>1985</v>
       </c>
       <c r="F23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G23">
         <v>19</v>
@@ -3168,10 +3303,10 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K23">
         <v>79</v>
@@ -3249,13 +3384,16 @@
         <v>20.9</v>
       </c>
       <c r="AJ23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AK23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AL23" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="AM23">
+        <v>2004</v>
       </c>
     </row>
   </sheetData>

--- a/lebron_james_per_game_averages.xlsx
+++ b/lebron_james_per_game_averages.xlsx
@@ -792,13 +792,13 @@
         <v>61</v>
       </c>
       <c r="E2">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="F2" t="s">
         <v>62</v>
       </c>
       <c r="G2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H2">
         <v>22</v>
@@ -911,13 +911,13 @@
         <v>61</v>
       </c>
       <c r="E3">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="F3" t="s">
         <v>63</v>
       </c>
       <c r="G3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H3">
         <v>21</v>
@@ -1030,13 +1030,13 @@
         <v>61</v>
       </c>
       <c r="E4">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="F4" t="s">
         <v>63</v>
       </c>
       <c r="G4">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H4">
         <v>20</v>
@@ -1149,13 +1149,13 @@
         <v>61</v>
       </c>
       <c r="E5">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="F5" t="s">
         <v>63</v>
       </c>
       <c r="G5">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H5">
         <v>19</v>
@@ -1268,13 +1268,13 @@
         <v>61</v>
       </c>
       <c r="E6">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="F6" t="s">
         <v>64</v>
       </c>
       <c r="G6">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H6">
         <v>18</v>
@@ -1387,13 +1387,13 @@
         <v>61</v>
       </c>
       <c r="E7">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="F7" t="s">
         <v>64</v>
       </c>
       <c r="G7">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7">
         <v>17</v>
@@ -1506,13 +1506,13 @@
         <v>61</v>
       </c>
       <c r="E8">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="F8" t="s">
         <v>62</v>
       </c>
       <c r="G8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H8">
         <v>16</v>
@@ -1625,13 +1625,13 @@
         <v>61</v>
       </c>
       <c r="E9">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="F9" t="s">
         <v>63</v>
       </c>
       <c r="G9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H9">
         <v>15</v>
@@ -1744,13 +1744,13 @@
         <v>61</v>
       </c>
       <c r="E10">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="F10" t="s">
         <v>62</v>
       </c>
       <c r="G10">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H10">
         <v>14</v>
@@ -1863,13 +1863,13 @@
         <v>61</v>
       </c>
       <c r="E11">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="F11" t="s">
         <v>62</v>
       </c>
       <c r="G11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>13</v>
@@ -1982,13 +1982,13 @@
         <v>61</v>
       </c>
       <c r="E12">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="F12" t="s">
         <v>62</v>
       </c>
       <c r="G12">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H12">
         <v>12</v>
@@ -2101,13 +2101,13 @@
         <v>61</v>
       </c>
       <c r="E13">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="F13" t="s">
         <v>63</v>
       </c>
       <c r="G13">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H13">
         <v>11</v>
@@ -2220,13 +2220,13 @@
         <v>61</v>
       </c>
       <c r="E14">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="F14" t="s">
         <v>63</v>
       </c>
       <c r="G14">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H14">
         <v>10</v>
@@ -2339,13 +2339,13 @@
         <v>61</v>
       </c>
       <c r="E15">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="F15" t="s">
         <v>62</v>
       </c>
       <c r="G15">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H15">
         <v>9</v>
@@ -2458,13 +2458,13 @@
         <v>61</v>
       </c>
       <c r="E16">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="F16" t="s">
         <v>62</v>
       </c>
       <c r="G16">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H16">
         <v>8</v>
@@ -2577,13 +2577,13 @@
         <v>61</v>
       </c>
       <c r="E17">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="F17" t="s">
         <v>62</v>
       </c>
       <c r="G17">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H17">
         <v>7</v>
@@ -2696,13 +2696,13 @@
         <v>61</v>
       </c>
       <c r="E18">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="F18" t="s">
         <v>62</v>
       </c>
       <c r="G18">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H18">
         <v>6</v>
@@ -2815,13 +2815,13 @@
         <v>61</v>
       </c>
       <c r="E19">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="F19" t="s">
         <v>62</v>
       </c>
       <c r="G19">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H19">
         <v>5</v>
@@ -2934,13 +2934,13 @@
         <v>61</v>
       </c>
       <c r="E20">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="F20" t="s">
         <v>62</v>
       </c>
       <c r="G20">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H20">
         <v>4</v>
@@ -3053,13 +3053,13 @@
         <v>61</v>
       </c>
       <c r="E21">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="F21" t="s">
         <v>62</v>
       </c>
       <c r="G21">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H21">
         <v>3</v>
@@ -3172,13 +3172,13 @@
         <v>61</v>
       </c>
       <c r="E22">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="F22" t="s">
         <v>62</v>
       </c>
       <c r="G22">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -3291,13 +3291,13 @@
         <v>61</v>
       </c>
       <c r="E23">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="F23" t="s">
         <v>65</v>
       </c>
       <c r="G23">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H23">
         <v>1</v>

--- a/lebron_james_per_game_averages.xlsx
+++ b/lebron_james_per_game_averages.xlsx
@@ -1024,7 +1024,7 @@
         <v>41</v>
       </c>
       <c r="C4">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D4" t="s">
         <v>61</v>
@@ -1143,7 +1143,7 @@
         <v>42</v>
       </c>
       <c r="C5">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D5" t="s">
         <v>61</v>
@@ -1262,7 +1262,7 @@
         <v>43</v>
       </c>
       <c r="C6">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D6" t="s">
         <v>61</v>
@@ -1381,7 +1381,7 @@
         <v>44</v>
       </c>
       <c r="C7">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D7" t="s">
         <v>61</v>
@@ -1500,7 +1500,7 @@
         <v>45</v>
       </c>
       <c r="C8">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D8" t="s">
         <v>61</v>
@@ -1619,7 +1619,7 @@
         <v>46</v>
       </c>
       <c r="C9">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D9" t="s">
         <v>61</v>
@@ -1738,7 +1738,7 @@
         <v>47</v>
       </c>
       <c r="C10">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D10" t="s">
         <v>61</v>
@@ -1857,7 +1857,7 @@
         <v>48</v>
       </c>
       <c r="C11">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D11" t="s">
         <v>61</v>
@@ -1976,7 +1976,7 @@
         <v>49</v>
       </c>
       <c r="C12">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D12" t="s">
         <v>61</v>
@@ -2095,7 +2095,7 @@
         <v>50</v>
       </c>
       <c r="C13">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D13" t="s">
         <v>61</v>
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="C14">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D14" t="s">
         <v>61</v>
@@ -2333,7 +2333,7 @@
         <v>52</v>
       </c>
       <c r="C15">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D15" t="s">
         <v>61</v>
@@ -2452,7 +2452,7 @@
         <v>53</v>
       </c>
       <c r="C16">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D16" t="s">
         <v>61</v>
@@ -2571,7 +2571,7 @@
         <v>54</v>
       </c>
       <c r="C17">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D17" t="s">
         <v>61</v>
@@ -2690,7 +2690,7 @@
         <v>55</v>
       </c>
       <c r="C18">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D18" t="s">
         <v>61</v>
@@ -2809,7 +2809,7 @@
         <v>56</v>
       </c>
       <c r="C19">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D19" t="s">
         <v>61</v>
@@ -2928,7 +2928,7 @@
         <v>57</v>
       </c>
       <c r="C20">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D20" t="s">
         <v>61</v>
@@ -3047,7 +3047,7 @@
         <v>58</v>
       </c>
       <c r="C21">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D21" t="s">
         <v>61</v>
@@ -3166,7 +3166,7 @@
         <v>59</v>
       </c>
       <c r="C22">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D22" t="s">
         <v>61</v>
@@ -3285,7 +3285,7 @@
         <v>60</v>
       </c>
       <c r="C23">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D23" t="s">
         <v>61</v>

--- a/lebron_james_per_game_averages.xlsx
+++ b/lebron_james_per_game_averages.xlsx
@@ -786,7 +786,7 @@
         <v>39</v>
       </c>
       <c r="C2">
-        <v>3462</v>
+        <v>3463</v>
       </c>
       <c r="D2" t="s">
         <v>61</v>
@@ -905,7 +905,7 @@
         <v>40</v>
       </c>
       <c r="C3">
-        <v>3462</v>
+        <v>3463</v>
       </c>
       <c r="D3" t="s">
         <v>61</v>
@@ -1024,7 +1024,7 @@
         <v>41</v>
       </c>
       <c r="C4">
-        <v>3462</v>
+        <v>3463</v>
       </c>
       <c r="D4" t="s">
         <v>61</v>
@@ -1143,7 +1143,7 @@
         <v>42</v>
       </c>
       <c r="C5">
-        <v>3462</v>
+        <v>3463</v>
       </c>
       <c r="D5" t="s">
         <v>61</v>
@@ -1262,7 +1262,7 @@
         <v>43</v>
       </c>
       <c r="C6">
-        <v>3462</v>
+        <v>3463</v>
       </c>
       <c r="D6" t="s">
         <v>61</v>
@@ -1381,7 +1381,7 @@
         <v>44</v>
       </c>
       <c r="C7">
-        <v>3462</v>
+        <v>3463</v>
       </c>
       <c r="D7" t="s">
         <v>61</v>
@@ -1500,7 +1500,7 @@
         <v>45</v>
       </c>
       <c r="C8">
-        <v>3462</v>
+        <v>3463</v>
       </c>
       <c r="D8" t="s">
         <v>61</v>
@@ -1619,7 +1619,7 @@
         <v>46</v>
       </c>
       <c r="C9">
-        <v>3462</v>
+        <v>3463</v>
       </c>
       <c r="D9" t="s">
         <v>61</v>
@@ -1738,7 +1738,7 @@
         <v>47</v>
       </c>
       <c r="C10">
-        <v>3462</v>
+        <v>3463</v>
       </c>
       <c r="D10" t="s">
         <v>61</v>
@@ -1857,7 +1857,7 @@
         <v>48</v>
       </c>
       <c r="C11">
-        <v>3462</v>
+        <v>3463</v>
       </c>
       <c r="D11" t="s">
         <v>61</v>
@@ -1976,7 +1976,7 @@
         <v>49</v>
       </c>
       <c r="C12">
-        <v>3462</v>
+        <v>3463</v>
       </c>
       <c r="D12" t="s">
         <v>61</v>
@@ -2095,7 +2095,7 @@
         <v>50</v>
       </c>
       <c r="C13">
-        <v>3462</v>
+        <v>3463</v>
       </c>
       <c r="D13" t="s">
         <v>61</v>
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="C14">
-        <v>3462</v>
+        <v>3463</v>
       </c>
       <c r="D14" t="s">
         <v>61</v>
@@ -2333,7 +2333,7 @@
         <v>52</v>
       </c>
       <c r="C15">
-        <v>3462</v>
+        <v>3463</v>
       </c>
       <c r="D15" t="s">
         <v>61</v>
@@ -2452,7 +2452,7 @@
         <v>53</v>
       </c>
       <c r="C16">
-        <v>3462</v>
+        <v>3463</v>
       </c>
       <c r="D16" t="s">
         <v>61</v>
@@ -2571,7 +2571,7 @@
         <v>54</v>
       </c>
       <c r="C17">
-        <v>3462</v>
+        <v>3463</v>
       </c>
       <c r="D17" t="s">
         <v>61</v>
@@ -2690,7 +2690,7 @@
         <v>55</v>
       </c>
       <c r="C18">
-        <v>3462</v>
+        <v>3463</v>
       </c>
       <c r="D18" t="s">
         <v>61</v>
@@ -2809,7 +2809,7 @@
         <v>56</v>
       </c>
       <c r="C19">
-        <v>3462</v>
+        <v>3463</v>
       </c>
       <c r="D19" t="s">
         <v>61</v>
@@ -2928,7 +2928,7 @@
         <v>57</v>
       </c>
       <c r="C20">
-        <v>3462</v>
+        <v>3463</v>
       </c>
       <c r="D20" t="s">
         <v>61</v>
@@ -3047,7 +3047,7 @@
         <v>58</v>
       </c>
       <c r="C21">
-        <v>3462</v>
+        <v>3463</v>
       </c>
       <c r="D21" t="s">
         <v>61</v>
@@ -3166,7 +3166,7 @@
         <v>59</v>
       </c>
       <c r="C22">
-        <v>3462</v>
+        <v>3463</v>
       </c>
       <c r="D22" t="s">
         <v>61</v>
@@ -3285,7 +3285,7 @@
         <v>60</v>
       </c>
       <c r="C23">
-        <v>3462</v>
+        <v>3463</v>
       </c>
       <c r="D23" t="s">
         <v>61</v>

--- a/lebron_james_per_game_averages.xlsx
+++ b/lebron_james_per_game_averages.xlsx
@@ -22,13 +22,13 @@
     <t>season_ending_year</t>
   </si>
   <si>
-    <t>player_id</t>
+    <t>player_id_x</t>
   </si>
   <si>
     <t>player</t>
   </si>
   <si>
-    <t>birth_year</t>
+    <t>birth_year_x</t>
   </si>
   <si>
     <t>pos</t>
@@ -786,7 +786,7 @@
         <v>39</v>
       </c>
       <c r="C2">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D2" t="s">
         <v>61</v>
@@ -905,7 +905,7 @@
         <v>40</v>
       </c>
       <c r="C3">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D3" t="s">
         <v>61</v>
@@ -1024,7 +1024,7 @@
         <v>41</v>
       </c>
       <c r="C4">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D4" t="s">
         <v>61</v>
@@ -1143,7 +1143,7 @@
         <v>42</v>
       </c>
       <c r="C5">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D5" t="s">
         <v>61</v>
@@ -1262,7 +1262,7 @@
         <v>43</v>
       </c>
       <c r="C6">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D6" t="s">
         <v>61</v>
@@ -1381,7 +1381,7 @@
         <v>44</v>
       </c>
       <c r="C7">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D7" t="s">
         <v>61</v>
@@ -1500,7 +1500,7 @@
         <v>45</v>
       </c>
       <c r="C8">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D8" t="s">
         <v>61</v>
@@ -1619,7 +1619,7 @@
         <v>46</v>
       </c>
       <c r="C9">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D9" t="s">
         <v>61</v>
@@ -1738,7 +1738,7 @@
         <v>47</v>
       </c>
       <c r="C10">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D10" t="s">
         <v>61</v>
@@ -1857,7 +1857,7 @@
         <v>48</v>
       </c>
       <c r="C11">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D11" t="s">
         <v>61</v>
@@ -1976,7 +1976,7 @@
         <v>49</v>
       </c>
       <c r="C12">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D12" t="s">
         <v>61</v>
@@ -2095,7 +2095,7 @@
         <v>50</v>
       </c>
       <c r="C13">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D13" t="s">
         <v>61</v>
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="C14">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D14" t="s">
         <v>61</v>
@@ -2333,7 +2333,7 @@
         <v>52</v>
       </c>
       <c r="C15">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D15" t="s">
         <v>61</v>
@@ -2452,7 +2452,7 @@
         <v>53</v>
       </c>
       <c r="C16">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D16" t="s">
         <v>61</v>
@@ -2571,7 +2571,7 @@
         <v>54</v>
       </c>
       <c r="C17">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D17" t="s">
         <v>61</v>
@@ -2690,7 +2690,7 @@
         <v>55</v>
       </c>
       <c r="C18">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D18" t="s">
         <v>61</v>
@@ -2809,7 +2809,7 @@
         <v>56</v>
       </c>
       <c r="C19">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D19" t="s">
         <v>61</v>
@@ -2928,7 +2928,7 @@
         <v>57</v>
       </c>
       <c r="C20">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D20" t="s">
         <v>61</v>
@@ -3047,7 +3047,7 @@
         <v>58</v>
       </c>
       <c r="C21">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D21" t="s">
         <v>61</v>
@@ -3166,7 +3166,7 @@
         <v>59</v>
       </c>
       <c r="C22">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D22" t="s">
         <v>61</v>
@@ -3285,7 +3285,7 @@
         <v>60</v>
       </c>
       <c r="C23">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="D23" t="s">
         <v>61</v>

--- a/lebron_james_per_game_averages.xlsx
+++ b/lebron_james_per_game_averages.xlsx
@@ -22,13 +22,13 @@
     <t>season_ending_year</t>
   </si>
   <si>
-    <t>player_id_x</t>
+    <t>player_id</t>
   </si>
   <si>
     <t>player</t>
   </si>
   <si>
-    <t>birth_year_x</t>
+    <t>birth_year</t>
   </si>
   <si>
     <t>pos</t>
@@ -133,69 +133,69 @@
     <t>calendar_year</t>
   </si>
   <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
     <t>2025</t>
   </si>
   <si>
-    <t>2024</t>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2012</t>
   </si>
   <si>
     <t>2023</t>
   </si>
   <si>
-    <t>2022</t>
-  </si>
-  <si>
     <t>2021</t>
   </si>
   <si>
-    <t>2020</t>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2014</t>
   </si>
   <si>
     <t>2019</t>
   </si>
   <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
     <t>2004</t>
   </si>
   <si>
@@ -217,76 +217,76 @@
     <t>NBA</t>
   </si>
   <si>
+    <t>CLE</t>
+  </si>
+  <si>
     <t>LAL</t>
   </si>
   <si>
-    <t>CLE</t>
-  </si>
-  <si>
     <t>MIA</t>
   </si>
   <si>
+    <t>2008-09</t>
+  </si>
+  <si>
+    <t>2009-10</t>
+  </si>
+  <si>
+    <t>2023-24</t>
+  </si>
+  <si>
+    <t>2005-06</t>
+  </si>
+  <si>
+    <t>2007-08</t>
+  </si>
+  <si>
+    <t>2021-22</t>
+  </si>
+  <si>
+    <t>2010-11</t>
+  </si>
+  <si>
+    <t>2014-15</t>
+  </si>
+  <si>
+    <t>2019-20</t>
+  </si>
+  <si>
     <t>2024-25</t>
   </si>
   <si>
-    <t>2023-24</t>
+    <t>2006-07</t>
+  </si>
+  <si>
+    <t>2015-16</t>
+  </si>
+  <si>
+    <t>2017-18</t>
+  </si>
+  <si>
+    <t>2016-17</t>
+  </si>
+  <si>
+    <t>2012-13</t>
+  </si>
+  <si>
+    <t>2011-12</t>
   </si>
   <si>
     <t>2022-23</t>
   </si>
   <si>
-    <t>2021-22</t>
-  </si>
-  <si>
     <t>2020-21</t>
   </si>
   <si>
-    <t>2019-20</t>
+    <t>2004-05</t>
+  </si>
+  <si>
+    <t>2013-14</t>
   </si>
   <si>
     <t>2018-19</t>
-  </si>
-  <si>
-    <t>2017-18</t>
-  </si>
-  <si>
-    <t>2016-17</t>
-  </si>
-  <si>
-    <t>2015-16</t>
-  </si>
-  <si>
-    <t>2014-15</t>
-  </si>
-  <si>
-    <t>2013-14</t>
-  </si>
-  <si>
-    <t>2012-13</t>
-  </si>
-  <si>
-    <t>2011-12</t>
-  </si>
-  <si>
-    <t>2010-11</t>
-  </si>
-  <si>
-    <t>2009-10</t>
-  </si>
-  <si>
-    <t>2008-09</t>
-  </si>
-  <si>
-    <t>2007-08</t>
-  </si>
-  <si>
-    <t>2006-07</t>
-  </si>
-  <si>
-    <t>2005-06</t>
-  </si>
-  <si>
-    <t>2004-05</t>
   </si>
   <si>
     <t>2003-04</t>
@@ -780,13 +780,13 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2">
-        <v>32182</v>
+        <v>21909</v>
       </c>
       <c r="B2" t="s">
         <v>39</v>
       </c>
       <c r="C2">
-        <v>3462</v>
+        <v>3260</v>
       </c>
       <c r="D2" t="s">
         <v>61</v>
@@ -798,10 +798,10 @@
         <v>62</v>
       </c>
       <c r="G2">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="H2">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="I2" t="s">
         <v>66</v>
@@ -810,79 +810,79 @@
         <v>67</v>
       </c>
       <c r="K2">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="L2">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="M2">
-        <v>35.1</v>
+        <v>37.7</v>
       </c>
       <c r="N2">
-        <v>8.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="O2">
-        <v>16.8</v>
+        <v>19.9</v>
       </c>
       <c r="P2">
-        <v>0.498</v>
+        <v>0.489</v>
       </c>
       <c r="Q2">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="R2">
-        <v>5.4</v>
+        <v>4.7</v>
       </c>
       <c r="S2">
-        <v>0.388</v>
+        <v>0.344</v>
       </c>
       <c r="T2">
+        <v>8.1</v>
+      </c>
+      <c r="U2">
+        <v>15.2</v>
+      </c>
+      <c r="V2">
+        <v>0.535</v>
+      </c>
+      <c r="W2">
+        <v>0.53</v>
+      </c>
+      <c r="X2">
+        <v>7.3</v>
+      </c>
+      <c r="Y2">
+        <v>9.4</v>
+      </c>
+      <c r="Z2">
+        <v>0.78</v>
+      </c>
+      <c r="AA2">
+        <v>1.3</v>
+      </c>
+      <c r="AB2">
         <v>6.3</v>
       </c>
-      <c r="U2">
-        <v>11.4</v>
-      </c>
-      <c r="V2">
-        <v>0.551</v>
-      </c>
-      <c r="W2">
-        <v>0.5610000000000001</v>
-      </c>
-      <c r="X2">
-        <v>3.5</v>
-      </c>
-      <c r="Y2">
-        <v>4.6</v>
-      </c>
-      <c r="Z2">
-        <v>0.75</v>
-      </c>
-      <c r="AA2">
-        <v>0.8</v>
-      </c>
-      <c r="AB2">
-        <v>7.4</v>
-      </c>
       <c r="AC2">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="AD2">
-        <v>9.1</v>
+        <v>7.2</v>
       </c>
       <c r="AE2">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="AF2">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="AG2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH2">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="AI2">
-        <v>22.3</v>
+        <v>28.4</v>
       </c>
       <c r="AJ2" t="s">
         <v>70</v>
@@ -894,18 +894,18 @@
         <v>92</v>
       </c>
       <c r="AM2">
-        <v>2025</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="3" spans="1:39">
       <c r="A3">
-        <v>31585</v>
+        <v>22500</v>
       </c>
       <c r="B3" t="s">
         <v>40</v>
       </c>
       <c r="C3">
-        <v>3462</v>
+        <v>3260</v>
       </c>
       <c r="D3" t="s">
         <v>61</v>
@@ -914,13 +914,13 @@
         <v>1984</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G3">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="H3">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="I3" t="s">
         <v>66</v>
@@ -929,52 +929,52 @@
         <v>67</v>
       </c>
       <c r="K3">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="L3">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="M3">
-        <v>35.3</v>
+        <v>39</v>
       </c>
       <c r="N3">
-        <v>9.6</v>
+        <v>10.1</v>
       </c>
       <c r="O3">
-        <v>17.9</v>
+        <v>20.1</v>
       </c>
       <c r="P3">
-        <v>0.54</v>
+        <v>0.503</v>
       </c>
       <c r="Q3">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="R3">
         <v>5.1</v>
       </c>
       <c r="S3">
-        <v>0.41</v>
+        <v>0.333</v>
       </c>
       <c r="T3">
-        <v>7.5</v>
+        <v>8.4</v>
       </c>
       <c r="U3">
-        <v>12.8</v>
+        <v>15</v>
       </c>
       <c r="V3">
-        <v>0.592</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="W3">
-        <v>0.599</v>
+        <v>0.545</v>
       </c>
       <c r="X3">
-        <v>4.3</v>
+        <v>7.8</v>
       </c>
       <c r="Y3">
-        <v>5.7</v>
+        <v>10.2</v>
       </c>
       <c r="Z3">
-        <v>0.75</v>
+        <v>0.767</v>
       </c>
       <c r="AA3">
         <v>0.9</v>
@@ -986,22 +986,22 @@
         <v>7.3</v>
       </c>
       <c r="AD3">
-        <v>8.300000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AE3">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="AF3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AG3">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AH3">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="AI3">
-        <v>25.7</v>
+        <v>29.7</v>
       </c>
       <c r="AJ3" t="s">
         <v>71</v>
@@ -1013,18 +1013,18 @@
         <v>92</v>
       </c>
       <c r="AM3">
-        <v>2024</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="4" spans="1:39">
       <c r="A4">
-        <v>30873</v>
+        <v>31585</v>
       </c>
       <c r="B4" t="s">
         <v>41</v>
       </c>
       <c r="C4">
-        <v>3462</v>
+        <v>3260</v>
       </c>
       <c r="D4" t="s">
         <v>61</v>
@@ -1036,91 +1036,91 @@
         <v>63</v>
       </c>
       <c r="G4">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
         <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K4">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="M4">
-        <v>35.5</v>
+        <v>35.3</v>
       </c>
       <c r="N4">
-        <v>11.1</v>
+        <v>9.6</v>
       </c>
       <c r="O4">
-        <v>22.2</v>
+        <v>17.9</v>
       </c>
       <c r="P4">
+        <v>0.54</v>
+      </c>
+      <c r="Q4">
+        <v>2.1</v>
+      </c>
+      <c r="R4">
+        <v>5.1</v>
+      </c>
+      <c r="S4">
+        <v>0.41</v>
+      </c>
+      <c r="T4">
+        <v>7.5</v>
+      </c>
+      <c r="U4">
+        <v>12.8</v>
+      </c>
+      <c r="V4">
+        <v>0.592</v>
+      </c>
+      <c r="W4">
+        <v>0.599</v>
+      </c>
+      <c r="X4">
+        <v>4.3</v>
+      </c>
+      <c r="Y4">
+        <v>5.7</v>
+      </c>
+      <c r="Z4">
+        <v>0.75</v>
+      </c>
+      <c r="AA4">
+        <v>0.9</v>
+      </c>
+      <c r="AB4">
+        <v>6.4</v>
+      </c>
+      <c r="AC4">
+        <v>7.3</v>
+      </c>
+      <c r="AD4">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE4">
+        <v>1.3</v>
+      </c>
+      <c r="AF4">
         <v>0.5</v>
       </c>
-      <c r="Q4">
-        <v>2.2</v>
-      </c>
-      <c r="R4">
-        <v>6.9</v>
-      </c>
-      <c r="S4">
-        <v>0.321</v>
-      </c>
-      <c r="T4">
-        <v>8.9</v>
-      </c>
-      <c r="U4">
-        <v>15.3</v>
-      </c>
-      <c r="V4">
-        <v>0.58</v>
-      </c>
-      <c r="W4">
-        <v>0.549</v>
-      </c>
-      <c r="X4">
-        <v>4.6</v>
-      </c>
-      <c r="Y4">
-        <v>5.9</v>
-      </c>
-      <c r="Z4">
-        <v>0.768</v>
-      </c>
-      <c r="AA4">
-        <v>1.2</v>
-      </c>
-      <c r="AB4">
-        <v>7.1</v>
-      </c>
-      <c r="AC4">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="AD4">
-        <v>6.8</v>
-      </c>
-      <c r="AE4">
-        <v>0.9</v>
-      </c>
-      <c r="AF4">
-        <v>0.6</v>
-      </c>
       <c r="AG4">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="AH4">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="AI4">
-        <v>28.9</v>
+        <v>25.7</v>
       </c>
       <c r="AJ4" t="s">
         <v>72</v>
@@ -1132,18 +1132,18 @@
         <v>92</v>
       </c>
       <c r="AM4">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="5" spans="1:39">
       <c r="A5">
-        <v>30150</v>
+        <v>20211</v>
       </c>
       <c r="B5" t="s">
         <v>42</v>
       </c>
       <c r="C5">
-        <v>3462</v>
+        <v>3260</v>
       </c>
       <c r="D5" t="s">
         <v>61</v>
@@ -1152,13 +1152,13 @@
         <v>1984</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G5">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="H5">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="I5" t="s">
         <v>66</v>
@@ -1167,79 +1167,79 @@
         <v>67</v>
       </c>
       <c r="K5">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="L5">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="M5">
-        <v>37.2</v>
+        <v>42.5</v>
       </c>
       <c r="N5">
-        <v>11.4</v>
+        <v>11.1</v>
       </c>
       <c r="O5">
-        <v>21.8</v>
+        <v>23.1</v>
       </c>
       <c r="P5">
-        <v>0.524</v>
+        <v>0.48</v>
       </c>
       <c r="Q5">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="R5">
-        <v>8</v>
+        <v>4.8</v>
       </c>
       <c r="S5">
-        <v>0.359</v>
+        <v>0.335</v>
       </c>
       <c r="T5">
-        <v>8.6</v>
+        <v>9.5</v>
       </c>
       <c r="U5">
-        <v>13.8</v>
+        <v>18.3</v>
       </c>
       <c r="V5">
-        <v>0.62</v>
+        <v>0.518</v>
       </c>
       <c r="W5">
-        <v>0.59</v>
+        <v>0.515</v>
       </c>
       <c r="X5">
-        <v>4.5</v>
+        <v>7.6</v>
       </c>
       <c r="Y5">
-        <v>6</v>
+        <v>10.3</v>
       </c>
       <c r="Z5">
-        <v>0.756</v>
+        <v>0.738</v>
       </c>
       <c r="AA5">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="AB5">
-        <v>7.1</v>
+        <v>6.1</v>
       </c>
       <c r="AC5">
-        <v>8.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="AD5">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="AE5">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="AF5">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AG5">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="AH5">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="AI5">
-        <v>30.3</v>
+        <v>31.4</v>
       </c>
       <c r="AJ5" t="s">
         <v>73</v>
@@ -1251,18 +1251,18 @@
         <v>92</v>
       </c>
       <c r="AM5">
-        <v>2022</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="A6">
-        <v>29371</v>
+        <v>21320</v>
       </c>
       <c r="B6" t="s">
         <v>43</v>
       </c>
       <c r="C6">
-        <v>3462</v>
+        <v>3260</v>
       </c>
       <c r="D6" t="s">
         <v>61</v>
@@ -1271,13 +1271,13 @@
         <v>1984</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G6">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="H6">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="I6" t="s">
         <v>66</v>
@@ -1286,79 +1286,79 @@
         <v>67</v>
       </c>
       <c r="K6">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="L6">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="M6">
-        <v>33.4</v>
+        <v>40.4</v>
       </c>
       <c r="N6">
-        <v>9.4</v>
+        <v>10.6</v>
       </c>
       <c r="O6">
-        <v>18.3</v>
+        <v>21.9</v>
       </c>
       <c r="P6">
-        <v>0.513</v>
+        <v>0.484</v>
       </c>
       <c r="Q6">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="R6">
-        <v>6.3</v>
+        <v>4.8</v>
       </c>
       <c r="S6">
-        <v>0.365</v>
+        <v>0.315</v>
       </c>
       <c r="T6">
-        <v>7.1</v>
+        <v>9.1</v>
       </c>
       <c r="U6">
-        <v>12</v>
+        <v>17.1</v>
       </c>
       <c r="V6">
-        <v>0.591</v>
+        <v>0.531</v>
       </c>
       <c r="W6">
-        <v>0.576</v>
+        <v>0.518</v>
       </c>
       <c r="X6">
-        <v>4</v>
+        <v>7.3</v>
       </c>
       <c r="Y6">
-        <v>5.7</v>
+        <v>10.3</v>
       </c>
       <c r="Z6">
-        <v>0.698</v>
+        <v>0.712</v>
       </c>
       <c r="AA6">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="AB6">
-        <v>7</v>
+        <v>6.1</v>
       </c>
       <c r="AC6">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AD6">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="AE6">
+        <v>1.8</v>
+      </c>
+      <c r="AF6">
         <v>1.1</v>
       </c>
-      <c r="AF6">
-        <v>0.6</v>
-      </c>
       <c r="AG6">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="AH6">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="AI6">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AJ6" t="s">
         <v>74</v>
@@ -1370,18 +1370,18 @@
         <v>92</v>
       </c>
       <c r="AM6">
-        <v>2021</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="7" spans="1:39">
       <c r="A7">
-        <v>28697</v>
+        <v>30150</v>
       </c>
       <c r="B7" t="s">
         <v>44</v>
       </c>
       <c r="C7">
-        <v>3462</v>
+        <v>3260</v>
       </c>
       <c r="D7" t="s">
         <v>61</v>
@@ -1390,117 +1390,117 @@
         <v>1984</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G7">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H7">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I7" t="s">
         <v>66</v>
       </c>
       <c r="J7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K7">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="L7">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="M7">
-        <v>34.6</v>
+        <v>37.2</v>
       </c>
       <c r="N7">
-        <v>9.6</v>
+        <v>11.4</v>
       </c>
       <c r="O7">
-        <v>19.4</v>
+        <v>21.8</v>
       </c>
       <c r="P7">
-        <v>0.493</v>
+        <v>0.524</v>
       </c>
       <c r="Q7">
+        <v>2.9</v>
+      </c>
+      <c r="R7">
+        <v>8</v>
+      </c>
+      <c r="S7">
+        <v>0.359</v>
+      </c>
+      <c r="T7">
+        <v>8.6</v>
+      </c>
+      <c r="U7">
+        <v>13.8</v>
+      </c>
+      <c r="V7">
+        <v>0.62</v>
+      </c>
+      <c r="W7">
+        <v>0.59</v>
+      </c>
+      <c r="X7">
+        <v>4.5</v>
+      </c>
+      <c r="Y7">
+        <v>6</v>
+      </c>
+      <c r="Z7">
+        <v>0.756</v>
+      </c>
+      <c r="AA7">
+        <v>1.1</v>
+      </c>
+      <c r="AB7">
+        <v>7.1</v>
+      </c>
+      <c r="AC7">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD7">
+        <v>6.2</v>
+      </c>
+      <c r="AE7">
+        <v>1.3</v>
+      </c>
+      <c r="AF7">
+        <v>1.1</v>
+      </c>
+      <c r="AG7">
+        <v>3.5</v>
+      </c>
+      <c r="AH7">
         <v>2.2</v>
       </c>
-      <c r="R7">
-        <v>6.3</v>
-      </c>
-      <c r="S7">
-        <v>0.348</v>
-      </c>
-      <c r="T7">
-        <v>7.4</v>
-      </c>
-      <c r="U7">
-        <v>13.1</v>
-      </c>
-      <c r="V7">
-        <v>0.5639999999999999</v>
-      </c>
-      <c r="W7">
-        <v>0.55</v>
-      </c>
-      <c r="X7">
-        <v>3.9</v>
-      </c>
-      <c r="Y7">
-        <v>5.7</v>
-      </c>
-      <c r="Z7">
-        <v>0.6929999999999999</v>
-      </c>
-      <c r="AA7">
-        <v>1</v>
-      </c>
-      <c r="AB7">
-        <v>6.9</v>
-      </c>
-      <c r="AC7">
-        <v>7.8</v>
-      </c>
-      <c r="AD7">
-        <v>10.2</v>
-      </c>
-      <c r="AE7">
-        <v>1.2</v>
-      </c>
-      <c r="AF7">
-        <v>0.5</v>
-      </c>
-      <c r="AG7">
-        <v>3.9</v>
-      </c>
-      <c r="AH7">
-        <v>1.8</v>
-      </c>
       <c r="AI7">
-        <v>25.3</v>
+        <v>30.3</v>
       </c>
       <c r="AJ7" t="s">
         <v>75</v>
       </c>
       <c r="AK7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AL7" t="s">
         <v>92</v>
       </c>
       <c r="AM7">
-        <v>2020</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="8" spans="1:39">
       <c r="A8">
-        <v>28009</v>
+        <v>23116</v>
       </c>
       <c r="B8" t="s">
         <v>45</v>
       </c>
       <c r="C8">
-        <v>3462</v>
+        <v>3260</v>
       </c>
       <c r="D8" t="s">
         <v>61</v>
@@ -1512,79 +1512,79 @@
         <v>62</v>
       </c>
       <c r="G8">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H8">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I8" t="s">
         <v>66</v>
       </c>
       <c r="J8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K8">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="L8">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="M8">
-        <v>35.2</v>
+        <v>38.8</v>
       </c>
       <c r="N8">
-        <v>10.1</v>
+        <v>9.6</v>
       </c>
       <c r="O8">
-        <v>19.9</v>
+        <v>18.8</v>
       </c>
       <c r="P8">
         <v>0.51</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="R8">
-        <v>5.9</v>
+        <v>3.5</v>
       </c>
       <c r="S8">
-        <v>0.339</v>
+        <v>0.33</v>
       </c>
       <c r="T8">
-        <v>8.1</v>
+        <v>8.4</v>
       </c>
       <c r="U8">
-        <v>14</v>
+        <v>15.3</v>
       </c>
       <c r="V8">
-        <v>0.582</v>
+        <v>0.552</v>
       </c>
       <c r="W8">
-        <v>0.5600000000000001</v>
+        <v>0.541</v>
       </c>
       <c r="X8">
-        <v>5.1</v>
+        <v>6.4</v>
       </c>
       <c r="Y8">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="Z8">
-        <v>0.665</v>
+        <v>0.759</v>
       </c>
       <c r="AA8">
         <v>1</v>
       </c>
       <c r="AB8">
-        <v>7.4</v>
+        <v>6.5</v>
       </c>
       <c r="AC8">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD8">
-        <v>8.300000000000001</v>
+        <v>7</v>
       </c>
       <c r="AE8">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="AF8">
         <v>0.6</v>
@@ -1593,10 +1593,10 @@
         <v>3.6</v>
       </c>
       <c r="AH8">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="AI8">
-        <v>27.4</v>
+        <v>26.7</v>
       </c>
       <c r="AJ8" t="s">
         <v>76</v>
@@ -1608,18 +1608,18 @@
         <v>92</v>
       </c>
       <c r="AM8">
-        <v>2019</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="A9">
-        <v>27322</v>
+        <v>25491</v>
       </c>
       <c r="B9" t="s">
         <v>46</v>
       </c>
       <c r="C9">
-        <v>3462</v>
+        <v>3260</v>
       </c>
       <c r="D9" t="s">
         <v>61</v>
@@ -1628,94 +1628,94 @@
         <v>1984</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G9">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H9">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I9" t="s">
         <v>66</v>
       </c>
       <c r="J9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K9">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="L9">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="M9">
-        <v>36.9</v>
+        <v>36.1</v>
       </c>
       <c r="N9">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="O9">
-        <v>19.3</v>
+        <v>18.5</v>
       </c>
       <c r="P9">
-        <v>0.542</v>
+        <v>0.488</v>
       </c>
       <c r="Q9">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="R9">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="S9">
-        <v>0.367</v>
+        <v>0.354</v>
       </c>
       <c r="T9">
-        <v>8.6</v>
+        <v>7.3</v>
       </c>
       <c r="U9">
-        <v>14.3</v>
+        <v>13.6</v>
       </c>
       <c r="V9">
-        <v>0.603</v>
+        <v>0.536</v>
       </c>
       <c r="W9">
-        <v>0.59</v>
+        <v>0.535</v>
       </c>
       <c r="X9">
-        <v>4.7</v>
+        <v>5.4</v>
       </c>
       <c r="Y9">
-        <v>6.5</v>
+        <v>7.7</v>
       </c>
       <c r="Z9">
-        <v>0.731</v>
+        <v>0.71</v>
       </c>
       <c r="AA9">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="AB9">
-        <v>7.5</v>
+        <v>5.3</v>
       </c>
       <c r="AC9">
-        <v>8.6</v>
+        <v>6</v>
       </c>
       <c r="AD9">
-        <v>9.1</v>
+        <v>7.4</v>
       </c>
       <c r="AE9">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AF9">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="AG9">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="AH9">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="AI9">
-        <v>27.5</v>
+        <v>25.3</v>
       </c>
       <c r="AJ9" t="s">
         <v>77</v>
@@ -1727,18 +1727,18 @@
         <v>92</v>
       </c>
       <c r="AM9">
-        <v>2018</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="A10">
-        <v>26682</v>
+        <v>28697</v>
       </c>
       <c r="B10" t="s">
         <v>47</v>
       </c>
       <c r="C10">
-        <v>3462</v>
+        <v>3260</v>
       </c>
       <c r="D10" t="s">
         <v>61</v>
@@ -1747,13 +1747,13 @@
         <v>1984</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G10">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H10">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I10" t="s">
         <v>66</v>
@@ -1762,102 +1762,102 @@
         <v>68</v>
       </c>
       <c r="K10">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="L10">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="M10">
-        <v>37.8</v>
+        <v>34.6</v>
       </c>
       <c r="N10">
-        <v>9.9</v>
+        <v>9.6</v>
       </c>
       <c r="O10">
-        <v>18.2</v>
+        <v>19.4</v>
       </c>
       <c r="P10">
-        <v>0.548</v>
+        <v>0.493</v>
       </c>
       <c r="Q10">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="R10">
-        <v>4.6</v>
+        <v>6.3</v>
       </c>
       <c r="S10">
-        <v>0.363</v>
+        <v>0.348</v>
       </c>
       <c r="T10">
-        <v>8.300000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="U10">
-        <v>13.5</v>
+        <v>13.1</v>
       </c>
       <c r="V10">
-        <v>0.611</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="W10">
-        <v>0.594</v>
+        <v>0.55</v>
       </c>
       <c r="X10">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
       <c r="Y10">
-        <v>7.2</v>
+        <v>5.7</v>
       </c>
       <c r="Z10">
-        <v>0.674</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="AA10">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AB10">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="AC10">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD10">
-        <v>8.699999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="AE10">
         <v>1.2</v>
       </c>
       <c r="AF10">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AG10">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="AH10">
         <v>1.8</v>
       </c>
       <c r="AI10">
-        <v>26.4</v>
+        <v>25.3</v>
       </c>
       <c r="AJ10" t="s">
         <v>78</v>
       </c>
       <c r="AK10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AL10" t="s">
         <v>92</v>
       </c>
       <c r="AM10">
-        <v>2017</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="A11">
-        <v>26107</v>
+        <v>32201</v>
       </c>
       <c r="B11" t="s">
         <v>48</v>
       </c>
       <c r="C11">
-        <v>3462</v>
+        <v>3260</v>
       </c>
       <c r="D11" t="s">
         <v>61</v>
@@ -1869,10 +1869,10 @@
         <v>62</v>
       </c>
       <c r="G11">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H11">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="I11" t="s">
         <v>66</v>
@@ -1881,79 +1881,79 @@
         <v>68</v>
       </c>
       <c r="K11">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="L11">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="M11">
-        <v>35.6</v>
+        <v>35</v>
       </c>
       <c r="N11">
-        <v>9.699999999999999</v>
+        <v>9</v>
       </c>
       <c r="O11">
-        <v>18.6</v>
+        <v>18</v>
       </c>
       <c r="P11">
-        <v>0.52</v>
+        <v>0.497</v>
       </c>
       <c r="Q11">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="R11">
-        <v>3.7</v>
+        <v>5.6</v>
       </c>
       <c r="S11">
-        <v>0.309</v>
+        <v>0.362</v>
       </c>
       <c r="T11">
-        <v>8.6</v>
+        <v>6.9</v>
       </c>
       <c r="U11">
-        <v>14.9</v>
+        <v>12.4</v>
       </c>
       <c r="V11">
-        <v>0.573</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="W11">
-        <v>0.551</v>
+        <v>0.554</v>
       </c>
       <c r="X11">
-        <v>4.7</v>
+        <v>3.5</v>
       </c>
       <c r="Y11">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="Z11">
-        <v>0.731</v>
+        <v>0.771</v>
       </c>
       <c r="AA11">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="AB11">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="AC11">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="AD11">
-        <v>6.8</v>
+        <v>8.9</v>
       </c>
       <c r="AE11">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="AF11">
         <v>0.6</v>
       </c>
       <c r="AG11">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="AH11">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="AI11">
-        <v>25.3</v>
+        <v>23.4</v>
       </c>
       <c r="AJ11" t="s">
         <v>79</v>
@@ -1965,18 +1965,18 @@
         <v>92</v>
       </c>
       <c r="AM11">
-        <v>2016</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="A12">
-        <v>25491</v>
+        <v>20761</v>
       </c>
       <c r="B12" t="s">
         <v>49</v>
       </c>
       <c r="C12">
-        <v>3462</v>
+        <v>3260</v>
       </c>
       <c r="D12" t="s">
         <v>61</v>
@@ -1988,76 +1988,76 @@
         <v>62</v>
       </c>
       <c r="G12">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H12">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I12" t="s">
         <v>66</v>
       </c>
       <c r="J12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K12">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="L12">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="M12">
-        <v>36.1</v>
+        <v>40.9</v>
       </c>
       <c r="N12">
+        <v>9.9</v>
+      </c>
+      <c r="O12">
+        <v>20.8</v>
+      </c>
+      <c r="P12">
+        <v>0.476</v>
+      </c>
+      <c r="Q12">
+        <v>1.3</v>
+      </c>
+      <c r="R12">
+        <v>4</v>
+      </c>
+      <c r="S12">
+        <v>0.319</v>
+      </c>
+      <c r="T12">
+        <v>8.6</v>
+      </c>
+      <c r="U12">
+        <v>16.8</v>
+      </c>
+      <c r="V12">
+        <v>0.513</v>
+      </c>
+      <c r="W12">
+        <v>0.507</v>
+      </c>
+      <c r="X12">
+        <v>6.3</v>
+      </c>
+      <c r="Y12">
         <v>9</v>
       </c>
-      <c r="O12">
-        <v>18.5</v>
-      </c>
-      <c r="P12">
-        <v>0.488</v>
-      </c>
-      <c r="Q12">
-        <v>1.7</v>
-      </c>
-      <c r="R12">
-        <v>4.9</v>
-      </c>
-      <c r="S12">
-        <v>0.354</v>
-      </c>
-      <c r="T12">
-        <v>7.3</v>
-      </c>
-      <c r="U12">
-        <v>13.6</v>
-      </c>
-      <c r="V12">
-        <v>0.536</v>
-      </c>
-      <c r="W12">
-        <v>0.535</v>
-      </c>
-      <c r="X12">
-        <v>5.4</v>
-      </c>
-      <c r="Y12">
-        <v>7.7</v>
-      </c>
       <c r="Z12">
-        <v>0.71</v>
+        <v>0.698</v>
       </c>
       <c r="AA12">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="AB12">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="AC12">
+        <v>6.7</v>
+      </c>
+      <c r="AD12">
         <v>6</v>
-      </c>
-      <c r="AD12">
-        <v>7.4</v>
       </c>
       <c r="AE12">
         <v>1.6</v>
@@ -2066,13 +2066,13 @@
         <v>0.7</v>
       </c>
       <c r="AG12">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="AH12">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AI12">
-        <v>25.3</v>
+        <v>27.3</v>
       </c>
       <c r="AJ12" t="s">
         <v>80</v>
@@ -2084,18 +2084,18 @@
         <v>92</v>
       </c>
       <c r="AM12">
-        <v>2015</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="A13">
-        <v>24853</v>
+        <v>26107</v>
       </c>
       <c r="B13" t="s">
         <v>50</v>
       </c>
       <c r="C13">
-        <v>3462</v>
+        <v>3260</v>
       </c>
       <c r="D13" t="s">
         <v>61</v>
@@ -2104,94 +2104,94 @@
         <v>1984</v>
       </c>
       <c r="F13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G13">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H13">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I13" t="s">
         <v>66</v>
       </c>
       <c r="J13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K13">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L13">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M13">
-        <v>37.7</v>
+        <v>35.6</v>
       </c>
       <c r="N13">
-        <v>10</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="O13">
-        <v>17.6</v>
+        <v>18.6</v>
       </c>
       <c r="P13">
-        <v>0.5669999999999999</v>
+        <v>0.52</v>
       </c>
       <c r="Q13">
+        <v>1.1</v>
+      </c>
+      <c r="R13">
+        <v>3.7</v>
+      </c>
+      <c r="S13">
+        <v>0.309</v>
+      </c>
+      <c r="T13">
+        <v>8.6</v>
+      </c>
+      <c r="U13">
+        <v>14.9</v>
+      </c>
+      <c r="V13">
+        <v>0.573</v>
+      </c>
+      <c r="W13">
+        <v>0.551</v>
+      </c>
+      <c r="X13">
+        <v>4.7</v>
+      </c>
+      <c r="Y13">
+        <v>6.5</v>
+      </c>
+      <c r="Z13">
+        <v>0.731</v>
+      </c>
+      <c r="AA13">
         <v>1.5</v>
       </c>
-      <c r="R13">
-        <v>4</v>
-      </c>
-      <c r="S13">
-        <v>0.379</v>
-      </c>
-      <c r="T13">
-        <v>8.5</v>
-      </c>
-      <c r="U13">
-        <v>13.6</v>
-      </c>
-      <c r="V13">
-        <v>0.622</v>
-      </c>
-      <c r="W13">
-        <v>0.61</v>
-      </c>
-      <c r="X13">
-        <v>5.7</v>
-      </c>
-      <c r="Y13">
-        <v>7.6</v>
-      </c>
-      <c r="Z13">
-        <v>0.75</v>
-      </c>
-      <c r="AA13">
-        <v>1.1</v>
-      </c>
       <c r="AB13">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AC13">
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
       <c r="AD13">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="AE13">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AF13">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="AG13">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="AH13">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="AI13">
-        <v>27.1</v>
+        <v>25.3</v>
       </c>
       <c r="AJ13" t="s">
         <v>81</v>
@@ -2203,18 +2203,18 @@
         <v>92</v>
       </c>
       <c r="AM13">
-        <v>2014</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14">
-        <v>24275</v>
+        <v>27322</v>
       </c>
       <c r="B14" t="s">
         <v>51</v>
       </c>
       <c r="C14">
-        <v>3462</v>
+        <v>3260</v>
       </c>
       <c r="D14" t="s">
         <v>61</v>
@@ -2226,91 +2226,91 @@
         <v>63</v>
       </c>
       <c r="G14">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H14">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
         <v>66</v>
       </c>
       <c r="J14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K14">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L14">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M14">
-        <v>37.9</v>
+        <v>36.9</v>
       </c>
       <c r="N14">
-        <v>10.1</v>
+        <v>10.5</v>
       </c>
       <c r="O14">
-        <v>17.8</v>
+        <v>19.3</v>
       </c>
       <c r="P14">
-        <v>0.5649999999999999</v>
+        <v>0.542</v>
       </c>
       <c r="Q14">
+        <v>1.8</v>
+      </c>
+      <c r="R14">
+        <v>5</v>
+      </c>
+      <c r="S14">
+        <v>0.367</v>
+      </c>
+      <c r="T14">
+        <v>8.6</v>
+      </c>
+      <c r="U14">
+        <v>14.3</v>
+      </c>
+      <c r="V14">
+        <v>0.603</v>
+      </c>
+      <c r="W14">
+        <v>0.59</v>
+      </c>
+      <c r="X14">
+        <v>4.7</v>
+      </c>
+      <c r="Y14">
+        <v>6.5</v>
+      </c>
+      <c r="Z14">
+        <v>0.731</v>
+      </c>
+      <c r="AA14">
+        <v>1.2</v>
+      </c>
+      <c r="AB14">
+        <v>7.5</v>
+      </c>
+      <c r="AC14">
+        <v>8.6</v>
+      </c>
+      <c r="AD14">
+        <v>9.1</v>
+      </c>
+      <c r="AE14">
         <v>1.4</v>
-      </c>
-      <c r="R14">
-        <v>3.3</v>
-      </c>
-      <c r="S14">
-        <v>0.406</v>
-      </c>
-      <c r="T14">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="U14">
-        <v>14.5</v>
-      </c>
-      <c r="V14">
-        <v>0.602</v>
-      </c>
-      <c r="W14">
-        <v>0.603</v>
-      </c>
-      <c r="X14">
-        <v>5.3</v>
-      </c>
-      <c r="Y14">
-        <v>7</v>
-      </c>
-      <c r="Z14">
-        <v>0.753</v>
-      </c>
-      <c r="AA14">
-        <v>1.3</v>
-      </c>
-      <c r="AB14">
-        <v>6.8</v>
-      </c>
-      <c r="AC14">
-        <v>8</v>
-      </c>
-      <c r="AD14">
-        <v>7.3</v>
-      </c>
-      <c r="AE14">
-        <v>1.7</v>
       </c>
       <c r="AF14">
         <v>0.9</v>
       </c>
       <c r="AG14">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="AH14">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="AI14">
-        <v>26.8</v>
+        <v>27.5</v>
       </c>
       <c r="AJ14" t="s">
         <v>82</v>
@@ -2322,18 +2322,18 @@
         <v>92</v>
       </c>
       <c r="AM14">
-        <v>2013</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="15" spans="1:39">
       <c r="A15">
-        <v>23706</v>
+        <v>26682</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
       </c>
       <c r="C15">
-        <v>3462</v>
+        <v>3260</v>
       </c>
       <c r="D15" t="s">
         <v>61</v>
@@ -2345,91 +2345,91 @@
         <v>62</v>
       </c>
       <c r="G15">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H15">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I15" t="s">
         <v>66</v>
       </c>
       <c r="J15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K15">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="L15">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="M15">
-        <v>37.5</v>
+        <v>37.8</v>
       </c>
       <c r="N15">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="O15">
-        <v>18.9</v>
+        <v>18.2</v>
       </c>
       <c r="P15">
-        <v>0.531</v>
+        <v>0.548</v>
       </c>
       <c r="Q15">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="R15">
-        <v>2.4</v>
+        <v>4.6</v>
       </c>
       <c r="S15">
-        <v>0.362</v>
+        <v>0.363</v>
       </c>
       <c r="T15">
-        <v>9.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="U15">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="V15">
-        <v>0.556</v>
+        <v>0.611</v>
       </c>
       <c r="W15">
-        <v>0.554</v>
+        <v>0.594</v>
       </c>
       <c r="X15">
-        <v>6.2</v>
+        <v>4.8</v>
       </c>
       <c r="Y15">
-        <v>8.1</v>
+        <v>7.2</v>
       </c>
       <c r="Z15">
-        <v>0.771</v>
+        <v>0.674</v>
       </c>
       <c r="AA15">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="AB15">
-        <v>6.4</v>
+        <v>7.3</v>
       </c>
       <c r="AC15">
-        <v>7.9</v>
+        <v>8.6</v>
       </c>
       <c r="AD15">
-        <v>6.2</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AE15">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="AF15">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="AG15">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="AH15">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AI15">
-        <v>27.1</v>
+        <v>26.4</v>
       </c>
       <c r="AJ15" t="s">
         <v>83</v>
@@ -2441,18 +2441,18 @@
         <v>92</v>
       </c>
       <c r="AM15">
-        <v>2012</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="A16">
-        <v>23116</v>
+        <v>24275</v>
       </c>
       <c r="B16" t="s">
         <v>53</v>
       </c>
       <c r="C16">
-        <v>3462</v>
+        <v>3260</v>
       </c>
       <c r="D16" t="s">
         <v>61</v>
@@ -2461,13 +2461,13 @@
         <v>1984</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G16">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H16">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I16" t="s">
         <v>66</v>
@@ -2476,79 +2476,79 @@
         <v>69</v>
       </c>
       <c r="K16">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L16">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M16">
-        <v>38.8</v>
+        <v>37.9</v>
       </c>
       <c r="N16">
-        <v>9.6</v>
+        <v>10.1</v>
       </c>
       <c r="O16">
-        <v>18.8</v>
+        <v>17.8</v>
       </c>
       <c r="P16">
-        <v>0.51</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="Q16">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="R16">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="S16">
-        <v>0.33</v>
+        <v>0.406</v>
       </c>
       <c r="T16">
-        <v>8.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="U16">
-        <v>15.3</v>
+        <v>14.5</v>
       </c>
       <c r="V16">
-        <v>0.552</v>
+        <v>0.602</v>
       </c>
       <c r="W16">
-        <v>0.541</v>
+        <v>0.603</v>
       </c>
       <c r="X16">
-        <v>6.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y16">
-        <v>8.4</v>
+        <v>7</v>
       </c>
       <c r="Z16">
-        <v>0.759</v>
+        <v>0.753</v>
       </c>
       <c r="AA16">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AB16">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="AC16">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD16">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="AE16">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AF16">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="AG16">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="AH16">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="AI16">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="AJ16" t="s">
         <v>84</v>
@@ -2560,18 +2560,18 @@
         <v>92</v>
       </c>
       <c r="AM16">
-        <v>2011</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="17" spans="1:39">
       <c r="A17">
-        <v>22500</v>
+        <v>23706</v>
       </c>
       <c r="B17" t="s">
         <v>54</v>
       </c>
       <c r="C17">
-        <v>3462</v>
+        <v>3260</v>
       </c>
       <c r="D17" t="s">
         <v>61</v>
@@ -2583,91 +2583,91 @@
         <v>62</v>
       </c>
       <c r="G17">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H17">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I17" t="s">
         <v>66</v>
       </c>
       <c r="J17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K17">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="L17">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="M17">
-        <v>39</v>
+        <v>37.5</v>
       </c>
       <c r="N17">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="O17">
-        <v>20.1</v>
+        <v>18.9</v>
       </c>
       <c r="P17">
-        <v>0.503</v>
+        <v>0.531</v>
       </c>
       <c r="Q17">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="R17">
-        <v>5.1</v>
+        <v>2.4</v>
       </c>
       <c r="S17">
-        <v>0.333</v>
+        <v>0.362</v>
       </c>
       <c r="T17">
-        <v>8.4</v>
+        <v>9.1</v>
       </c>
       <c r="U17">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="V17">
-        <v>0.5600000000000001</v>
+        <v>0.556</v>
       </c>
       <c r="W17">
-        <v>0.545</v>
+        <v>0.554</v>
       </c>
       <c r="X17">
-        <v>7.8</v>
+        <v>6.2</v>
       </c>
       <c r="Y17">
-        <v>10.2</v>
+        <v>8.1</v>
       </c>
       <c r="Z17">
-        <v>0.767</v>
+        <v>0.771</v>
       </c>
       <c r="AA17">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="AB17">
         <v>6.4</v>
       </c>
       <c r="AC17">
-        <v>7.3</v>
+        <v>7.9</v>
       </c>
       <c r="AD17">
-        <v>8.6</v>
+        <v>6.2</v>
       </c>
       <c r="AE17">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="AF17">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AG17">
         <v>3.4</v>
       </c>
       <c r="AH17">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AI17">
-        <v>29.7</v>
+        <v>27.1</v>
       </c>
       <c r="AJ17" t="s">
         <v>85</v>
@@ -2679,18 +2679,18 @@
         <v>92</v>
       </c>
       <c r="AM17">
-        <v>2010</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="18" spans="1:39">
       <c r="A18">
-        <v>21909</v>
+        <v>30873</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
       </c>
       <c r="C18">
-        <v>3462</v>
+        <v>3260</v>
       </c>
       <c r="D18" t="s">
         <v>61</v>
@@ -2699,13 +2699,13 @@
         <v>1984</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G18">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H18">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="I18" t="s">
         <v>66</v>
@@ -2714,79 +2714,79 @@
         <v>68</v>
       </c>
       <c r="K18">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="L18">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="M18">
-        <v>37.7</v>
+        <v>35.5</v>
       </c>
       <c r="N18">
-        <v>9.699999999999999</v>
+        <v>11.1</v>
       </c>
       <c r="O18">
-        <v>19.9</v>
+        <v>22.2</v>
       </c>
       <c r="P18">
-        <v>0.489</v>
+        <v>0.5</v>
       </c>
       <c r="Q18">
+        <v>2.2</v>
+      </c>
+      <c r="R18">
+        <v>6.9</v>
+      </c>
+      <c r="S18">
+        <v>0.321</v>
+      </c>
+      <c r="T18">
+        <v>8.9</v>
+      </c>
+      <c r="U18">
+        <v>15.3</v>
+      </c>
+      <c r="V18">
+        <v>0.58</v>
+      </c>
+      <c r="W18">
+        <v>0.549</v>
+      </c>
+      <c r="X18">
+        <v>4.6</v>
+      </c>
+      <c r="Y18">
+        <v>5.9</v>
+      </c>
+      <c r="Z18">
+        <v>0.768</v>
+      </c>
+      <c r="AA18">
+        <v>1.2</v>
+      </c>
+      <c r="AB18">
+        <v>7.1</v>
+      </c>
+      <c r="AC18">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AD18">
+        <v>6.8</v>
+      </c>
+      <c r="AE18">
+        <v>0.9</v>
+      </c>
+      <c r="AF18">
+        <v>0.6</v>
+      </c>
+      <c r="AG18">
+        <v>3.2</v>
+      </c>
+      <c r="AH18">
         <v>1.6</v>
       </c>
-      <c r="R18">
-        <v>4.7</v>
-      </c>
-      <c r="S18">
-        <v>0.344</v>
-      </c>
-      <c r="T18">
-        <v>8.1</v>
-      </c>
-      <c r="U18">
-        <v>15.2</v>
-      </c>
-      <c r="V18">
-        <v>0.535</v>
-      </c>
-      <c r="W18">
-        <v>0.53</v>
-      </c>
-      <c r="X18">
-        <v>7.3</v>
-      </c>
-      <c r="Y18">
-        <v>9.4</v>
-      </c>
-      <c r="Z18">
-        <v>0.78</v>
-      </c>
-      <c r="AA18">
-        <v>1.3</v>
-      </c>
-      <c r="AB18">
-        <v>6.3</v>
-      </c>
-      <c r="AC18">
-        <v>7.6</v>
-      </c>
-      <c r="AD18">
-        <v>7.2</v>
-      </c>
-      <c r="AE18">
-        <v>1.7</v>
-      </c>
-      <c r="AF18">
-        <v>1.1</v>
-      </c>
-      <c r="AG18">
-        <v>3</v>
-      </c>
-      <c r="AH18">
-        <v>1.7</v>
-      </c>
       <c r="AI18">
-        <v>28.4</v>
+        <v>28.9</v>
       </c>
       <c r="AJ18" t="s">
         <v>86</v>
@@ -2798,18 +2798,18 @@
         <v>92</v>
       </c>
       <c r="AM18">
-        <v>2009</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="19" spans="1:39">
       <c r="A19">
-        <v>21320</v>
+        <v>29371</v>
       </c>
       <c r="B19" t="s">
         <v>56</v>
       </c>
       <c r="C19">
-        <v>3462</v>
+        <v>3260</v>
       </c>
       <c r="D19" t="s">
         <v>61</v>
@@ -2818,13 +2818,13 @@
         <v>1984</v>
       </c>
       <c r="F19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G19">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="H19">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="I19" t="s">
         <v>66</v>
@@ -2833,79 +2833,79 @@
         <v>68</v>
       </c>
       <c r="K19">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="L19">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="M19">
-        <v>40.4</v>
+        <v>33.4</v>
       </c>
       <c r="N19">
-        <v>10.6</v>
+        <v>9.4</v>
       </c>
       <c r="O19">
-        <v>21.9</v>
+        <v>18.3</v>
       </c>
       <c r="P19">
-        <v>0.484</v>
+        <v>0.513</v>
       </c>
       <c r="Q19">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="R19">
-        <v>4.8</v>
+        <v>6.3</v>
       </c>
       <c r="S19">
-        <v>0.315</v>
+        <v>0.365</v>
       </c>
       <c r="T19">
-        <v>9.1</v>
+        <v>7.1</v>
       </c>
       <c r="U19">
-        <v>17.1</v>
+        <v>12</v>
       </c>
       <c r="V19">
-        <v>0.531</v>
+        <v>0.591</v>
       </c>
       <c r="W19">
-        <v>0.518</v>
+        <v>0.576</v>
       </c>
       <c r="X19">
-        <v>7.3</v>
+        <v>4</v>
       </c>
       <c r="Y19">
-        <v>10.3</v>
+        <v>5.7</v>
       </c>
       <c r="Z19">
-        <v>0.712</v>
+        <v>0.698</v>
       </c>
       <c r="AA19">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="AB19">
-        <v>6.1</v>
+        <v>7</v>
       </c>
       <c r="AC19">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="AD19">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="AE19">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="AF19">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="AG19">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="AH19">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="AI19">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AJ19" t="s">
         <v>87</v>
@@ -2917,18 +2917,18 @@
         <v>92</v>
       </c>
       <c r="AM19">
-        <v>2008</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="20" spans="1:39">
       <c r="A20">
-        <v>20761</v>
+        <v>19652</v>
       </c>
       <c r="B20" t="s">
         <v>57</v>
       </c>
       <c r="C20">
-        <v>3462</v>
+        <v>3260</v>
       </c>
       <c r="D20" t="s">
         <v>61</v>
@@ -2940,91 +2940,91 @@
         <v>62</v>
       </c>
       <c r="G20">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I20" t="s">
         <v>66</v>
       </c>
       <c r="J20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K20">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L20">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M20">
-        <v>40.9</v>
+        <v>42.4</v>
       </c>
       <c r="N20">
         <v>9.9</v>
       </c>
       <c r="O20">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="P20">
-        <v>0.476</v>
+        <v>0.472</v>
       </c>
       <c r="Q20">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="R20">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="S20">
-        <v>0.319</v>
+        <v>0.351</v>
       </c>
       <c r="T20">
         <v>8.6</v>
       </c>
       <c r="U20">
-        <v>16.8</v>
+        <v>17.2</v>
       </c>
       <c r="V20">
-        <v>0.513</v>
+        <v>0.499</v>
       </c>
       <c r="W20">
-        <v>0.507</v>
+        <v>0.504</v>
       </c>
       <c r="X20">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="Y20">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z20">
-        <v>0.698</v>
+        <v>0.75</v>
       </c>
       <c r="AA20">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AB20">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="AC20">
-        <v>6.7</v>
+        <v>7.4</v>
       </c>
       <c r="AD20">
-        <v>6</v>
+        <v>7.2</v>
       </c>
       <c r="AE20">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="AF20">
         <v>0.7</v>
       </c>
       <c r="AG20">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AH20">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="AI20">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="AJ20" t="s">
         <v>88</v>
@@ -3036,18 +3036,18 @@
         <v>92</v>
       </c>
       <c r="AM20">
-        <v>2007</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="21" spans="1:39">
       <c r="A21">
-        <v>20211</v>
+        <v>24853</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
       </c>
       <c r="C21">
-        <v>3462</v>
+        <v>3260</v>
       </c>
       <c r="D21" t="s">
         <v>61</v>
@@ -3056,94 +3056,94 @@
         <v>1984</v>
       </c>
       <c r="F21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G21">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I21" t="s">
         <v>66</v>
       </c>
       <c r="J21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K21">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L21">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M21">
-        <v>42.5</v>
+        <v>37.7</v>
       </c>
       <c r="N21">
-        <v>11.1</v>
+        <v>10</v>
       </c>
       <c r="O21">
-        <v>23.1</v>
+        <v>17.6</v>
       </c>
       <c r="P21">
-        <v>0.48</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="Q21">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="R21">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="S21">
-        <v>0.335</v>
+        <v>0.379</v>
       </c>
       <c r="T21">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="U21">
-        <v>18.3</v>
+        <v>13.6</v>
       </c>
       <c r="V21">
-        <v>0.518</v>
+        <v>0.622</v>
       </c>
       <c r="W21">
-        <v>0.515</v>
+        <v>0.61</v>
       </c>
       <c r="X21">
+        <v>5.7</v>
+      </c>
+      <c r="Y21">
         <v>7.6</v>
       </c>
-      <c r="Y21">
-        <v>10.3</v>
-      </c>
       <c r="Z21">
-        <v>0.738</v>
+        <v>0.75</v>
       </c>
       <c r="AA21">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="AB21">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="AC21">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AD21">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="AE21">
         <v>1.6</v>
       </c>
       <c r="AF21">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="AG21">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="AH21">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="AI21">
-        <v>31.4</v>
+        <v>27.1</v>
       </c>
       <c r="AJ21" t="s">
         <v>89</v>
@@ -3155,18 +3155,18 @@
         <v>92</v>
       </c>
       <c r="AM21">
-        <v>2006</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="22" spans="1:39">
       <c r="A22">
-        <v>19652</v>
+        <v>28009</v>
       </c>
       <c r="B22" t="s">
         <v>59</v>
       </c>
       <c r="C22">
-        <v>3462</v>
+        <v>3260</v>
       </c>
       <c r="D22" t="s">
         <v>61</v>
@@ -3178,10 +3178,10 @@
         <v>62</v>
       </c>
       <c r="G22">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I22" t="s">
         <v>66</v>
@@ -3190,79 +3190,79 @@
         <v>68</v>
       </c>
       <c r="K22">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="L22">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="M22">
-        <v>42.4</v>
+        <v>35.2</v>
       </c>
       <c r="N22">
-        <v>9.9</v>
+        <v>10.1</v>
       </c>
       <c r="O22">
-        <v>21.1</v>
+        <v>19.9</v>
       </c>
       <c r="P22">
-        <v>0.472</v>
+        <v>0.51</v>
       </c>
       <c r="Q22">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="R22">
-        <v>3.9</v>
+        <v>5.9</v>
       </c>
       <c r="S22">
-        <v>0.351</v>
+        <v>0.339</v>
       </c>
       <c r="T22">
-        <v>8.6</v>
+        <v>8.1</v>
       </c>
       <c r="U22">
-        <v>17.2</v>
+        <v>14</v>
       </c>
       <c r="V22">
-        <v>0.499</v>
+        <v>0.582</v>
       </c>
       <c r="W22">
-        <v>0.504</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="X22">
-        <v>6</v>
+        <v>5.1</v>
       </c>
       <c r="Y22">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="Z22">
-        <v>0.75</v>
+        <v>0.665</v>
       </c>
       <c r="AA22">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AB22">
-        <v>6</v>
+        <v>7.4</v>
       </c>
       <c r="AC22">
-        <v>7.4</v>
+        <v>8.5</v>
       </c>
       <c r="AD22">
-        <v>7.2</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AE22">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="AF22">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="AG22">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="AH22">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AI22">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="AJ22" t="s">
         <v>90</v>
@@ -3274,7 +3274,7 @@
         <v>92</v>
       </c>
       <c r="AM22">
-        <v>2005</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="23" spans="1:39">
@@ -3285,7 +3285,7 @@
         <v>60</v>
       </c>
       <c r="C23">
-        <v>3462</v>
+        <v>3260</v>
       </c>
       <c r="D23" t="s">
         <v>61</v>
@@ -3306,7 +3306,7 @@
         <v>66</v>
       </c>
       <c r="J23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K23">
         <v>79</v>

--- a/lebron_james_per_game_averages.xlsx
+++ b/lebron_james_per_game_averages.xlsx
@@ -133,163 +133,163 @@
     <t>calendar_year</t>
   </si>
   <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
     <t>2009</t>
   </si>
   <si>
+    <t>2017</t>
+  </si>
+  <si>
     <t>2010</t>
   </si>
   <si>
-    <t>2024</t>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2005</t>
   </si>
   <si>
     <t>2006</t>
   </si>
   <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2025</t>
-  </si>
-  <si>
-    <t>2007</t>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2012</t>
   </si>
   <si>
     <t>2016</t>
   </si>
   <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
     <t>LeBron James</t>
   </si>
   <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
     <t>SF</t>
   </si>
   <si>
-    <t>PF</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
-    <t>SG</t>
-  </si>
-  <si>
     <t>NBA</t>
   </si>
   <si>
     <t>CLE</t>
   </si>
   <si>
+    <t>MIA</t>
+  </si>
+  <si>
     <t>LAL</t>
   </si>
   <si>
-    <t>MIA</t>
+    <t>2003-04</t>
+  </si>
+  <si>
+    <t>2013-14</t>
+  </si>
+  <si>
+    <t>2023-24</t>
+  </si>
+  <si>
+    <t>2014-15</t>
   </si>
   <si>
     <t>2008-09</t>
   </si>
   <si>
+    <t>2016-17</t>
+  </si>
+  <si>
     <t>2009-10</t>
   </si>
   <si>
-    <t>2023-24</t>
+    <t>2019-20</t>
+  </si>
+  <si>
+    <t>2020-21</t>
+  </si>
+  <si>
+    <t>2010-11</t>
+  </si>
+  <si>
+    <t>2021-22</t>
+  </si>
+  <si>
+    <t>2012-13</t>
+  </si>
+  <si>
+    <t>2018-19</t>
+  </si>
+  <si>
+    <t>2006-07</t>
+  </si>
+  <si>
+    <t>2024-25</t>
+  </si>
+  <si>
+    <t>2007-08</t>
+  </si>
+  <si>
+    <t>2022-23</t>
+  </si>
+  <si>
+    <t>2004-05</t>
   </si>
   <si>
     <t>2005-06</t>
   </si>
   <si>
-    <t>2007-08</t>
-  </si>
-  <si>
-    <t>2021-22</t>
-  </si>
-  <si>
-    <t>2010-11</t>
-  </si>
-  <si>
-    <t>2014-15</t>
-  </si>
-  <si>
-    <t>2019-20</t>
-  </si>
-  <si>
-    <t>2024-25</t>
-  </si>
-  <si>
-    <t>2006-07</t>
+    <t>2017-18</t>
+  </si>
+  <si>
+    <t>2011-12</t>
   </si>
   <si>
     <t>2015-16</t>
-  </si>
-  <si>
-    <t>2017-18</t>
-  </si>
-  <si>
-    <t>2016-17</t>
-  </si>
-  <si>
-    <t>2012-13</t>
-  </si>
-  <si>
-    <t>2011-12</t>
-  </si>
-  <si>
-    <t>2022-23</t>
-  </si>
-  <si>
-    <t>2020-21</t>
-  </si>
-  <si>
-    <t>2004-05</t>
-  </si>
-  <si>
-    <t>2013-14</t>
-  </si>
-  <si>
-    <t>2018-19</t>
-  </si>
-  <si>
-    <t>2003-04</t>
   </si>
   <si>
     <t>No</t>
@@ -780,13 +780,13 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2">
-        <v>21909</v>
+        <v>19051</v>
       </c>
       <c r="B2" t="s">
         <v>39</v>
       </c>
       <c r="C2">
-        <v>3260</v>
+        <v>3266</v>
       </c>
       <c r="D2" t="s">
         <v>61</v>
@@ -798,10 +798,10 @@
         <v>62</v>
       </c>
       <c r="G2">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I2" t="s">
         <v>66</v>
@@ -810,79 +810,79 @@
         <v>67</v>
       </c>
       <c r="K2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M2">
-        <v>37.7</v>
+        <v>39.5</v>
       </c>
       <c r="N2">
-        <v>9.699999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="O2">
-        <v>19.9</v>
+        <v>18.9</v>
       </c>
       <c r="P2">
-        <v>0.489</v>
+        <v>0.417</v>
       </c>
       <c r="Q2">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="R2">
-        <v>4.7</v>
+        <v>2.7</v>
       </c>
       <c r="S2">
-        <v>0.344</v>
+        <v>0.29</v>
       </c>
       <c r="T2">
-        <v>8.1</v>
+        <v>7.1</v>
       </c>
       <c r="U2">
-        <v>15.2</v>
+        <v>16.1</v>
       </c>
       <c r="V2">
-        <v>0.535</v>
+        <v>0.438</v>
       </c>
       <c r="W2">
-        <v>0.53</v>
+        <v>0.438</v>
       </c>
       <c r="X2">
-        <v>7.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y2">
-        <v>9.4</v>
+        <v>5.8</v>
       </c>
       <c r="Z2">
-        <v>0.78</v>
+        <v>0.754</v>
       </c>
       <c r="AA2">
         <v>1.3</v>
       </c>
       <c r="AB2">
-        <v>6.3</v>
+        <v>4.2</v>
       </c>
       <c r="AC2">
-        <v>7.6</v>
+        <v>5.5</v>
       </c>
       <c r="AD2">
-        <v>7.2</v>
+        <v>5.9</v>
       </c>
       <c r="AE2">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="AF2">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="AG2">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="AH2">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="AI2">
-        <v>28.4</v>
+        <v>20.9</v>
       </c>
       <c r="AJ2" t="s">
         <v>70</v>
@@ -894,18 +894,18 @@
         <v>92</v>
       </c>
       <c r="AM2">
-        <v>2009</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="3" spans="1:39">
       <c r="A3">
-        <v>22500</v>
+        <v>24853</v>
       </c>
       <c r="B3" t="s">
         <v>40</v>
       </c>
       <c r="C3">
-        <v>3260</v>
+        <v>3266</v>
       </c>
       <c r="D3" t="s">
         <v>61</v>
@@ -914,94 +914,94 @@
         <v>1984</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G3">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I3" t="s">
         <v>66</v>
       </c>
       <c r="J3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K3">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L3">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M3">
-        <v>39</v>
+        <v>37.7</v>
       </c>
       <c r="N3">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="O3">
-        <v>20.1</v>
+        <v>17.6</v>
       </c>
       <c r="P3">
-        <v>0.503</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="Q3">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="R3">
-        <v>5.1</v>
+        <v>4</v>
       </c>
       <c r="S3">
-        <v>0.333</v>
+        <v>0.379</v>
       </c>
       <c r="T3">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="U3">
-        <v>15</v>
+        <v>13.6</v>
       </c>
       <c r="V3">
-        <v>0.5600000000000001</v>
+        <v>0.622</v>
       </c>
       <c r="W3">
-        <v>0.545</v>
+        <v>0.61</v>
       </c>
       <c r="X3">
-        <v>7.8</v>
+        <v>5.7</v>
       </c>
       <c r="Y3">
-        <v>10.2</v>
+        <v>7.6</v>
       </c>
       <c r="Z3">
-        <v>0.767</v>
+        <v>0.75</v>
       </c>
       <c r="AA3">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="AB3">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="AC3">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="AD3">
-        <v>8.6</v>
+        <v>6.3</v>
       </c>
       <c r="AE3">
         <v>1.6</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="AG3">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AH3">
         <v>1.6</v>
       </c>
       <c r="AI3">
-        <v>29.7</v>
+        <v>27.1</v>
       </c>
       <c r="AJ3" t="s">
         <v>71</v>
@@ -1013,7 +1013,7 @@
         <v>92</v>
       </c>
       <c r="AM3">
-        <v>2010</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -1024,7 +1024,7 @@
         <v>41</v>
       </c>
       <c r="C4">
-        <v>3260</v>
+        <v>3266</v>
       </c>
       <c r="D4" t="s">
         <v>61</v>
@@ -1045,7 +1045,7 @@
         <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K4">
         <v>71</v>
@@ -1137,13 +1137,13 @@
     </row>
     <row r="5" spans="1:39">
       <c r="A5">
-        <v>20211</v>
+        <v>25491</v>
       </c>
       <c r="B5" t="s">
         <v>42</v>
       </c>
       <c r="C5">
-        <v>3260</v>
+        <v>3266</v>
       </c>
       <c r="D5" t="s">
         <v>61</v>
@@ -1152,13 +1152,13 @@
         <v>1984</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G5">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I5" t="s">
         <v>66</v>
@@ -1167,79 +1167,79 @@
         <v>67</v>
       </c>
       <c r="K5">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="L5">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="M5">
-        <v>42.5</v>
+        <v>36.1</v>
       </c>
       <c r="N5">
-        <v>11.1</v>
+        <v>9</v>
       </c>
       <c r="O5">
-        <v>23.1</v>
+        <v>18.5</v>
       </c>
       <c r="P5">
-        <v>0.48</v>
+        <v>0.488</v>
       </c>
       <c r="Q5">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="R5">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="S5">
-        <v>0.335</v>
+        <v>0.354</v>
       </c>
       <c r="T5">
-        <v>9.5</v>
+        <v>7.3</v>
       </c>
       <c r="U5">
-        <v>18.3</v>
+        <v>13.6</v>
       </c>
       <c r="V5">
-        <v>0.518</v>
+        <v>0.536</v>
       </c>
       <c r="W5">
-        <v>0.515</v>
+        <v>0.535</v>
       </c>
       <c r="X5">
-        <v>7.6</v>
+        <v>5.4</v>
       </c>
       <c r="Y5">
-        <v>10.3</v>
+        <v>7.7</v>
       </c>
       <c r="Z5">
-        <v>0.738</v>
+        <v>0.71</v>
       </c>
       <c r="AA5">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="AB5">
-        <v>6.1</v>
+        <v>5.3</v>
       </c>
       <c r="AC5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AD5">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
       <c r="AE5">
         <v>1.6</v>
       </c>
       <c r="AF5">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AG5">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="AH5">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="AI5">
-        <v>31.4</v>
+        <v>25.3</v>
       </c>
       <c r="AJ5" t="s">
         <v>73</v>
@@ -1251,18 +1251,18 @@
         <v>92</v>
       </c>
       <c r="AM5">
-        <v>2006</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="A6">
-        <v>21320</v>
+        <v>21909</v>
       </c>
       <c r="B6" t="s">
         <v>43</v>
       </c>
       <c r="C6">
-        <v>3260</v>
+        <v>3266</v>
       </c>
       <c r="D6" t="s">
         <v>61</v>
@@ -1271,13 +1271,13 @@
         <v>1984</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G6">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I6" t="s">
         <v>66</v>
@@ -1286,79 +1286,79 @@
         <v>67</v>
       </c>
       <c r="K6">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="L6">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="M6">
-        <v>40.4</v>
+        <v>37.7</v>
       </c>
       <c r="N6">
-        <v>10.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="O6">
-        <v>21.9</v>
+        <v>19.9</v>
       </c>
       <c r="P6">
-        <v>0.484</v>
+        <v>0.489</v>
       </c>
       <c r="Q6">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="R6">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="S6">
-        <v>0.315</v>
+        <v>0.344</v>
       </c>
       <c r="T6">
-        <v>9.1</v>
+        <v>8.1</v>
       </c>
       <c r="U6">
-        <v>17.1</v>
+        <v>15.2</v>
       </c>
       <c r="V6">
-        <v>0.531</v>
+        <v>0.535</v>
       </c>
       <c r="W6">
-        <v>0.518</v>
+        <v>0.53</v>
       </c>
       <c r="X6">
         <v>7.3</v>
       </c>
       <c r="Y6">
-        <v>10.3</v>
+        <v>9.4</v>
       </c>
       <c r="Z6">
-        <v>0.712</v>
+        <v>0.78</v>
       </c>
       <c r="AA6">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="AB6">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AC6">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="AD6">
         <v>7.2</v>
       </c>
       <c r="AE6">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AF6">
         <v>1.1</v>
       </c>
       <c r="AG6">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="AH6">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="AI6">
-        <v>30</v>
+        <v>28.4</v>
       </c>
       <c r="AJ6" t="s">
         <v>74</v>
@@ -1370,18 +1370,18 @@
         <v>92</v>
       </c>
       <c r="AM6">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="7" spans="1:39">
       <c r="A7">
-        <v>30150</v>
+        <v>26682</v>
       </c>
       <c r="B7" t="s">
         <v>44</v>
       </c>
       <c r="C7">
-        <v>3260</v>
+        <v>3266</v>
       </c>
       <c r="D7" t="s">
         <v>61</v>
@@ -1390,94 +1390,94 @@
         <v>1984</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G7">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H7">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
         <v>66</v>
       </c>
       <c r="J7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K7">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="L7">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="M7">
-        <v>37.2</v>
+        <v>37.8</v>
       </c>
       <c r="N7">
-        <v>11.4</v>
+        <v>9.9</v>
       </c>
       <c r="O7">
-        <v>21.8</v>
+        <v>18.2</v>
       </c>
       <c r="P7">
-        <v>0.524</v>
+        <v>0.548</v>
       </c>
       <c r="Q7">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="R7">
-        <v>8</v>
+        <v>4.6</v>
       </c>
       <c r="S7">
-        <v>0.359</v>
+        <v>0.363</v>
       </c>
       <c r="T7">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="U7">
+        <v>13.5</v>
+      </c>
+      <c r="V7">
+        <v>0.611</v>
+      </c>
+      <c r="W7">
+        <v>0.594</v>
+      </c>
+      <c r="X7">
+        <v>4.8</v>
+      </c>
+      <c r="Y7">
+        <v>7.2</v>
+      </c>
+      <c r="Z7">
+        <v>0.674</v>
+      </c>
+      <c r="AA7">
+        <v>1.3</v>
+      </c>
+      <c r="AB7">
+        <v>7.3</v>
+      </c>
+      <c r="AC7">
         <v>8.6</v>
       </c>
-      <c r="U7">
-        <v>13.8</v>
-      </c>
-      <c r="V7">
-        <v>0.62</v>
-      </c>
-      <c r="W7">
-        <v>0.59</v>
-      </c>
-      <c r="X7">
-        <v>4.5</v>
-      </c>
-      <c r="Y7">
-        <v>6</v>
-      </c>
-      <c r="Z7">
-        <v>0.756</v>
-      </c>
-      <c r="AA7">
-        <v>1.1</v>
-      </c>
-      <c r="AB7">
-        <v>7.1</v>
-      </c>
-      <c r="AC7">
-        <v>8.199999999999999</v>
-      </c>
       <c r="AD7">
-        <v>6.2</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AE7">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AF7">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="AG7">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="AH7">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="AI7">
-        <v>30.3</v>
+        <v>26.4</v>
       </c>
       <c r="AJ7" t="s">
         <v>75</v>
@@ -1489,18 +1489,18 @@
         <v>92</v>
       </c>
       <c r="AM7">
-        <v>2022</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="8" spans="1:39">
       <c r="A8">
-        <v>23116</v>
+        <v>22500</v>
       </c>
       <c r="B8" t="s">
         <v>45</v>
       </c>
       <c r="C8">
-        <v>3260</v>
+        <v>3266</v>
       </c>
       <c r="D8" t="s">
         <v>61</v>
@@ -1509,94 +1509,94 @@
         <v>1984</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I8" t="s">
         <v>66</v>
       </c>
       <c r="J8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K8">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L8">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M8">
-        <v>38.8</v>
+        <v>39</v>
       </c>
       <c r="N8">
-        <v>9.6</v>
+        <v>10.1</v>
       </c>
       <c r="O8">
-        <v>18.8</v>
+        <v>20.1</v>
       </c>
       <c r="P8">
-        <v>0.51</v>
+        <v>0.503</v>
       </c>
       <c r="Q8">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="R8">
-        <v>3.5</v>
+        <v>5.1</v>
       </c>
       <c r="S8">
-        <v>0.33</v>
+        <v>0.333</v>
       </c>
       <c r="T8">
         <v>8.4</v>
       </c>
       <c r="U8">
-        <v>15.3</v>
+        <v>15</v>
       </c>
       <c r="V8">
-        <v>0.552</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="W8">
-        <v>0.541</v>
+        <v>0.545</v>
       </c>
       <c r="X8">
+        <v>7.8</v>
+      </c>
+      <c r="Y8">
+        <v>10.2</v>
+      </c>
+      <c r="Z8">
+        <v>0.767</v>
+      </c>
+      <c r="AA8">
+        <v>0.9</v>
+      </c>
+      <c r="AB8">
         <v>6.4</v>
       </c>
-      <c r="Y8">
-        <v>8.4</v>
-      </c>
-      <c r="Z8">
-        <v>0.759</v>
-      </c>
-      <c r="AA8">
-        <v>1</v>
-      </c>
-      <c r="AB8">
-        <v>6.5</v>
-      </c>
       <c r="AC8">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AD8">
-        <v>7</v>
+        <v>8.6</v>
       </c>
       <c r="AE8">
         <v>1.6</v>
       </c>
       <c r="AF8">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AG8">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="AH8">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="AI8">
-        <v>26.7</v>
+        <v>29.7</v>
       </c>
       <c r="AJ8" t="s">
         <v>76</v>
@@ -1608,18 +1608,18 @@
         <v>92</v>
       </c>
       <c r="AM8">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="A9">
-        <v>25491</v>
+        <v>28697</v>
       </c>
       <c r="B9" t="s">
         <v>46</v>
       </c>
       <c r="C9">
-        <v>3260</v>
+        <v>3266</v>
       </c>
       <c r="D9" t="s">
         <v>61</v>
@@ -1628,91 +1628,91 @@
         <v>1984</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G9">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I9" t="s">
         <v>66</v>
       </c>
       <c r="J9" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9">
         <v>67</v>
       </c>
-      <c r="K9">
-        <v>69</v>
-      </c>
       <c r="L9">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M9">
-        <v>36.1</v>
+        <v>34.6</v>
       </c>
       <c r="N9">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="O9">
-        <v>18.5</v>
+        <v>19.4</v>
       </c>
       <c r="P9">
-        <v>0.488</v>
+        <v>0.493</v>
       </c>
       <c r="Q9">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="R9">
-        <v>4.9</v>
+        <v>6.3</v>
       </c>
       <c r="S9">
-        <v>0.354</v>
+        <v>0.348</v>
       </c>
       <c r="T9">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="U9">
-        <v>13.6</v>
+        <v>13.1</v>
       </c>
       <c r="V9">
-        <v>0.536</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="W9">
-        <v>0.535</v>
+        <v>0.55</v>
       </c>
       <c r="X9">
-        <v>5.4</v>
+        <v>3.9</v>
       </c>
       <c r="Y9">
-        <v>7.7</v>
+        <v>5.7</v>
       </c>
       <c r="Z9">
-        <v>0.71</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="AA9">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AB9">
-        <v>5.3</v>
+        <v>6.9</v>
       </c>
       <c r="AC9">
-        <v>6</v>
+        <v>7.8</v>
       </c>
       <c r="AD9">
-        <v>7.4</v>
+        <v>10.2</v>
       </c>
       <c r="AE9">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="AF9">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="AG9">
         <v>3.9</v>
       </c>
       <c r="AH9">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AI9">
         <v>25.3</v>
@@ -1721,24 +1721,24 @@
         <v>77</v>
       </c>
       <c r="AK9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AL9" t="s">
         <v>92</v>
       </c>
       <c r="AM9">
-        <v>2015</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="A10">
-        <v>28697</v>
+        <v>29371</v>
       </c>
       <c r="B10" t="s">
         <v>47</v>
       </c>
       <c r="C10">
-        <v>3260</v>
+        <v>3266</v>
       </c>
       <c r="D10" t="s">
         <v>61</v>
@@ -1747,117 +1747,117 @@
         <v>1984</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G10">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H10">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I10" t="s">
         <v>66</v>
       </c>
       <c r="J10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K10">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="L10">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="M10">
-        <v>34.6</v>
+        <v>33.4</v>
       </c>
       <c r="N10">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="O10">
-        <v>19.4</v>
+        <v>18.3</v>
       </c>
       <c r="P10">
-        <v>0.493</v>
+        <v>0.513</v>
       </c>
       <c r="Q10">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="R10">
         <v>6.3</v>
       </c>
       <c r="S10">
-        <v>0.348</v>
+        <v>0.365</v>
       </c>
       <c r="T10">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="U10">
-        <v>13.1</v>
+        <v>12</v>
       </c>
       <c r="V10">
-        <v>0.5639999999999999</v>
+        <v>0.591</v>
       </c>
       <c r="W10">
-        <v>0.55</v>
+        <v>0.576</v>
       </c>
       <c r="X10">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Y10">
         <v>5.7</v>
       </c>
       <c r="Z10">
-        <v>0.6929999999999999</v>
+        <v>0.698</v>
       </c>
       <c r="AA10">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AB10">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AC10">
+        <v>7.7</v>
+      </c>
+      <c r="AD10">
         <v>7.8</v>
       </c>
-      <c r="AD10">
-        <v>10.2</v>
-      </c>
       <c r="AE10">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="AF10">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AG10">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="AH10">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="AI10">
-        <v>25.3</v>
+        <v>25</v>
       </c>
       <c r="AJ10" t="s">
         <v>78</v>
       </c>
       <c r="AK10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AL10" t="s">
         <v>92</v>
       </c>
       <c r="AM10">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="A11">
-        <v>32201</v>
+        <v>23116</v>
       </c>
       <c r="B11" t="s">
         <v>48</v>
       </c>
       <c r="C11">
-        <v>3260</v>
+        <v>3266</v>
       </c>
       <c r="D11" t="s">
         <v>61</v>
@@ -1866,13 +1866,13 @@
         <v>1984</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G11">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="H11">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="I11" t="s">
         <v>66</v>
@@ -1881,79 +1881,79 @@
         <v>68</v>
       </c>
       <c r="K11">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="L11">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="M11">
-        <v>35</v>
+        <v>38.8</v>
       </c>
       <c r="N11">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="O11">
-        <v>18</v>
+        <v>18.8</v>
       </c>
       <c r="P11">
-        <v>0.497</v>
+        <v>0.51</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="R11">
-        <v>5.6</v>
+        <v>3.5</v>
       </c>
       <c r="S11">
-        <v>0.362</v>
+        <v>0.33</v>
       </c>
       <c r="T11">
-        <v>6.9</v>
+        <v>8.4</v>
       </c>
       <c r="U11">
-        <v>12.4</v>
+        <v>15.3</v>
       </c>
       <c r="V11">
-        <v>0.5580000000000001</v>
+        <v>0.552</v>
       </c>
       <c r="W11">
-        <v>0.554</v>
+        <v>0.541</v>
       </c>
       <c r="X11">
-        <v>3.5</v>
+        <v>6.4</v>
       </c>
       <c r="Y11">
-        <v>4.5</v>
+        <v>8.4</v>
       </c>
       <c r="Z11">
-        <v>0.771</v>
+        <v>0.759</v>
       </c>
       <c r="AA11">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AB11">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="AC11">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AD11">
-        <v>8.9</v>
+        <v>7</v>
       </c>
       <c r="AE11">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="AF11">
         <v>0.6</v>
       </c>
       <c r="AG11">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="AH11">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="AI11">
-        <v>23.4</v>
+        <v>26.7</v>
       </c>
       <c r="AJ11" t="s">
         <v>79</v>
@@ -1965,18 +1965,18 @@
         <v>92</v>
       </c>
       <c r="AM11">
-        <v>2025</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="A12">
-        <v>20761</v>
+        <v>30150</v>
       </c>
       <c r="B12" t="s">
         <v>49</v>
       </c>
       <c r="C12">
-        <v>3260</v>
+        <v>3266</v>
       </c>
       <c r="D12" t="s">
         <v>61</v>
@@ -1985,94 +1985,94 @@
         <v>1984</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G12">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="I12" t="s">
         <v>66</v>
       </c>
       <c r="J12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K12">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="L12">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="M12">
-        <v>40.9</v>
+        <v>37.2</v>
       </c>
       <c r="N12">
-        <v>9.9</v>
+        <v>11.4</v>
       </c>
       <c r="O12">
-        <v>20.8</v>
+        <v>21.8</v>
       </c>
       <c r="P12">
-        <v>0.476</v>
+        <v>0.524</v>
       </c>
       <c r="Q12">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="R12">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S12">
-        <v>0.319</v>
+        <v>0.359</v>
       </c>
       <c r="T12">
         <v>8.6</v>
       </c>
       <c r="U12">
-        <v>16.8</v>
+        <v>13.8</v>
       </c>
       <c r="V12">
-        <v>0.513</v>
+        <v>0.62</v>
       </c>
       <c r="W12">
-        <v>0.507</v>
+        <v>0.59</v>
       </c>
       <c r="X12">
-        <v>6.3</v>
+        <v>4.5</v>
       </c>
       <c r="Y12">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Z12">
-        <v>0.698</v>
+        <v>0.756</v>
       </c>
       <c r="AA12">
         <v>1.1</v>
       </c>
       <c r="AB12">
-        <v>5.7</v>
+        <v>7.1</v>
       </c>
       <c r="AC12">
-        <v>6.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD12">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AE12">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="AF12">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="AG12">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="AH12">
         <v>2.2</v>
       </c>
       <c r="AI12">
-        <v>27.3</v>
+        <v>30.3</v>
       </c>
       <c r="AJ12" t="s">
         <v>80</v>
@@ -2084,18 +2084,18 @@
         <v>92</v>
       </c>
       <c r="AM12">
-        <v>2007</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="A13">
-        <v>26107</v>
+        <v>24275</v>
       </c>
       <c r="B13" t="s">
         <v>50</v>
       </c>
       <c r="C13">
-        <v>3260</v>
+        <v>3266</v>
       </c>
       <c r="D13" t="s">
         <v>61</v>
@@ -2104,19 +2104,19 @@
         <v>1984</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G13">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H13">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I13" t="s">
         <v>66</v>
       </c>
       <c r="J13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K13">
         <v>76</v>
@@ -2125,73 +2125,73 @@
         <v>76</v>
       </c>
       <c r="M13">
-        <v>35.6</v>
+        <v>37.9</v>
       </c>
       <c r="N13">
-        <v>9.699999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="O13">
-        <v>18.6</v>
+        <v>17.8</v>
       </c>
       <c r="P13">
-        <v>0.52</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="Q13">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="R13">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="S13">
-        <v>0.309</v>
+        <v>0.406</v>
       </c>
       <c r="T13">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="U13">
-        <v>14.9</v>
+        <v>14.5</v>
       </c>
       <c r="V13">
-        <v>0.573</v>
+        <v>0.602</v>
       </c>
       <c r="W13">
-        <v>0.551</v>
+        <v>0.603</v>
       </c>
       <c r="X13">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="Y13">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Z13">
-        <v>0.731</v>
+        <v>0.753</v>
       </c>
       <c r="AA13">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="AB13">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="AC13">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="AD13">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="AE13">
+        <v>1.7</v>
+      </c>
+      <c r="AF13">
+        <v>0.9</v>
+      </c>
+      <c r="AG13">
+        <v>3</v>
+      </c>
+      <c r="AH13">
         <v>1.4</v>
       </c>
-      <c r="AF13">
-        <v>0.6</v>
-      </c>
-      <c r="AG13">
-        <v>3.3</v>
-      </c>
-      <c r="AH13">
-        <v>1.9</v>
-      </c>
       <c r="AI13">
-        <v>25.3</v>
+        <v>26.8</v>
       </c>
       <c r="AJ13" t="s">
         <v>81</v>
@@ -2203,18 +2203,18 @@
         <v>92</v>
       </c>
       <c r="AM13">
-        <v>2016</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14">
-        <v>27322</v>
+        <v>28009</v>
       </c>
       <c r="B14" t="s">
         <v>51</v>
       </c>
       <c r="C14">
-        <v>3260</v>
+        <v>3266</v>
       </c>
       <c r="D14" t="s">
         <v>61</v>
@@ -2223,94 +2223,94 @@
         <v>1984</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G14">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H14">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I14" t="s">
         <v>66</v>
       </c>
       <c r="J14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K14">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="L14">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="M14">
-        <v>36.9</v>
+        <v>35.2</v>
       </c>
       <c r="N14">
-        <v>10.5</v>
+        <v>10.1</v>
       </c>
       <c r="O14">
-        <v>19.3</v>
+        <v>19.9</v>
       </c>
       <c r="P14">
-        <v>0.542</v>
+        <v>0.51</v>
       </c>
       <c r="Q14">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="R14">
-        <v>5</v>
+        <v>5.9</v>
       </c>
       <c r="S14">
-        <v>0.367</v>
+        <v>0.339</v>
       </c>
       <c r="T14">
-        <v>8.6</v>
+        <v>8.1</v>
       </c>
       <c r="U14">
-        <v>14.3</v>
+        <v>14</v>
       </c>
       <c r="V14">
-        <v>0.603</v>
+        <v>0.582</v>
       </c>
       <c r="W14">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="X14">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="Y14">
-        <v>6.5</v>
+        <v>7.6</v>
       </c>
       <c r="Z14">
-        <v>0.731</v>
+        <v>0.665</v>
       </c>
       <c r="AA14">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AB14">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AC14">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="AD14">
-        <v>9.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AE14">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AF14">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="AG14">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="AH14">
         <v>1.7</v>
       </c>
       <c r="AI14">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="AJ14" t="s">
         <v>82</v>
@@ -2322,18 +2322,18 @@
         <v>92</v>
       </c>
       <c r="AM14">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="15" spans="1:39">
       <c r="A15">
-        <v>26682</v>
+        <v>20761</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
       </c>
       <c r="C15">
-        <v>3260</v>
+        <v>3266</v>
       </c>
       <c r="D15" t="s">
         <v>61</v>
@@ -2342,13 +2342,13 @@
         <v>1984</v>
       </c>
       <c r="F15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G15">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="H15">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I15" t="s">
         <v>66</v>
@@ -2357,79 +2357,79 @@
         <v>67</v>
       </c>
       <c r="K15">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L15">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M15">
-        <v>37.8</v>
+        <v>40.9</v>
       </c>
       <c r="N15">
         <v>9.9</v>
       </c>
       <c r="O15">
-        <v>18.2</v>
+        <v>20.8</v>
       </c>
       <c r="P15">
-        <v>0.548</v>
+        <v>0.476</v>
       </c>
       <c r="Q15">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="R15">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="S15">
-        <v>0.363</v>
+        <v>0.319</v>
       </c>
       <c r="T15">
-        <v>8.300000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="U15">
-        <v>13.5</v>
+        <v>16.8</v>
       </c>
       <c r="V15">
-        <v>0.611</v>
+        <v>0.513</v>
       </c>
       <c r="W15">
-        <v>0.594</v>
+        <v>0.507</v>
       </c>
       <c r="X15">
-        <v>4.8</v>
+        <v>6.3</v>
       </c>
       <c r="Y15">
-        <v>7.2</v>
+        <v>9</v>
       </c>
       <c r="Z15">
-        <v>0.674</v>
+        <v>0.698</v>
       </c>
       <c r="AA15">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="AB15">
-        <v>7.3</v>
+        <v>5.7</v>
       </c>
       <c r="AC15">
-        <v>8.6</v>
+        <v>6.7</v>
       </c>
       <c r="AD15">
-        <v>8.699999999999999</v>
+        <v>6</v>
       </c>
       <c r="AE15">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="AF15">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="AG15">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="AH15">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="AI15">
-        <v>26.4</v>
+        <v>27.3</v>
       </c>
       <c r="AJ15" t="s">
         <v>83</v>
@@ -2441,18 +2441,18 @@
         <v>92</v>
       </c>
       <c r="AM15">
-        <v>2017</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="A16">
-        <v>24275</v>
+        <v>32216</v>
       </c>
       <c r="B16" t="s">
         <v>53</v>
       </c>
       <c r="C16">
-        <v>3260</v>
+        <v>3266</v>
       </c>
       <c r="D16" t="s">
         <v>61</v>
@@ -2461,13 +2461,13 @@
         <v>1984</v>
       </c>
       <c r="F16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G16">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H16">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I16" t="s">
         <v>66</v>
@@ -2476,79 +2476,79 @@
         <v>69</v>
       </c>
       <c r="K16">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="L16">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="M16">
-        <v>37.9</v>
+        <v>34.6</v>
       </c>
       <c r="N16">
-        <v>10.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O16">
-        <v>17.8</v>
+        <v>18</v>
       </c>
       <c r="P16">
-        <v>0.5649999999999999</v>
+        <v>0.512</v>
       </c>
       <c r="Q16">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="R16">
+        <v>5.5</v>
+      </c>
+      <c r="S16">
+        <v>0.379</v>
+      </c>
+      <c r="T16">
+        <v>7.1</v>
+      </c>
+      <c r="U16">
+        <v>12.5</v>
+      </c>
+      <c r="V16">
+        <v>0.57</v>
+      </c>
+      <c r="W16">
+        <v>0.569</v>
+      </c>
+      <c r="X16">
         <v>3.3</v>
       </c>
-      <c r="S16">
-        <v>0.406</v>
-      </c>
-      <c r="T16">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="U16">
-        <v>14.5</v>
-      </c>
-      <c r="V16">
-        <v>0.602</v>
-      </c>
-      <c r="W16">
-        <v>0.603</v>
-      </c>
-      <c r="X16">
-        <v>5.3</v>
-      </c>
       <c r="Y16">
-        <v>7</v>
+        <v>4.3</v>
       </c>
       <c r="Z16">
-        <v>0.753</v>
+        <v>0.773</v>
       </c>
       <c r="AA16">
+        <v>0.9</v>
+      </c>
+      <c r="AB16">
+        <v>6.6</v>
+      </c>
+      <c r="AC16">
+        <v>7.5</v>
+      </c>
+      <c r="AD16">
+        <v>9</v>
+      </c>
+      <c r="AE16">
+        <v>0.8</v>
+      </c>
+      <c r="AF16">
+        <v>0.5</v>
+      </c>
+      <c r="AG16">
+        <v>3.8</v>
+      </c>
+      <c r="AH16">
         <v>1.3</v>
       </c>
-      <c r="AB16">
-        <v>6.8</v>
-      </c>
-      <c r="AC16">
-        <v>8</v>
-      </c>
-      <c r="AD16">
-        <v>7.3</v>
-      </c>
-      <c r="AE16">
-        <v>1.7</v>
-      </c>
-      <c r="AF16">
-        <v>0.9</v>
-      </c>
-      <c r="AG16">
-        <v>3</v>
-      </c>
-      <c r="AH16">
-        <v>1.4</v>
-      </c>
       <c r="AI16">
-        <v>26.8</v>
+        <v>23.8</v>
       </c>
       <c r="AJ16" t="s">
         <v>84</v>
@@ -2560,18 +2560,18 @@
         <v>92</v>
       </c>
       <c r="AM16">
-        <v>2013</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="17" spans="1:39">
       <c r="A17">
-        <v>23706</v>
+        <v>21320</v>
       </c>
       <c r="B17" t="s">
         <v>54</v>
       </c>
       <c r="C17">
-        <v>3260</v>
+        <v>3266</v>
       </c>
       <c r="D17" t="s">
         <v>61</v>
@@ -2580,94 +2580,94 @@
         <v>1984</v>
       </c>
       <c r="F17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G17">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H17">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I17" t="s">
         <v>66</v>
       </c>
       <c r="J17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K17">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="L17">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="M17">
-        <v>37.5</v>
+        <v>40.4</v>
       </c>
       <c r="N17">
-        <v>10</v>
+        <v>10.6</v>
       </c>
       <c r="O17">
-        <v>18.9</v>
+        <v>21.9</v>
       </c>
       <c r="P17">
-        <v>0.531</v>
+        <v>0.484</v>
       </c>
       <c r="Q17">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="R17">
-        <v>2.4</v>
+        <v>4.8</v>
       </c>
       <c r="S17">
-        <v>0.362</v>
+        <v>0.315</v>
       </c>
       <c r="T17">
         <v>9.1</v>
       </c>
       <c r="U17">
-        <v>16.5</v>
+        <v>17.1</v>
       </c>
       <c r="V17">
-        <v>0.556</v>
+        <v>0.531</v>
       </c>
       <c r="W17">
-        <v>0.554</v>
+        <v>0.518</v>
       </c>
       <c r="X17">
-        <v>6.2</v>
+        <v>7.3</v>
       </c>
       <c r="Y17">
-        <v>8.1</v>
+        <v>10.3</v>
       </c>
       <c r="Z17">
-        <v>0.771</v>
+        <v>0.712</v>
       </c>
       <c r="AA17">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AB17">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="AC17">
         <v>7.9</v>
       </c>
       <c r="AD17">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="AE17">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AF17">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AG17">
         <v>3.4</v>
       </c>
       <c r="AH17">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="AI17">
-        <v>27.1</v>
+        <v>30</v>
       </c>
       <c r="AJ17" t="s">
         <v>85</v>
@@ -2679,7 +2679,7 @@
         <v>92</v>
       </c>
       <c r="AM17">
-        <v>2012</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="18" spans="1:39">
@@ -2690,7 +2690,7 @@
         <v>55</v>
       </c>
       <c r="C18">
-        <v>3260</v>
+        <v>3266</v>
       </c>
       <c r="D18" t="s">
         <v>61</v>
@@ -2711,7 +2711,7 @@
         <v>66</v>
       </c>
       <c r="J18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K18">
         <v>55</v>
@@ -2803,13 +2803,13 @@
     </row>
     <row r="19" spans="1:39">
       <c r="A19">
-        <v>29371</v>
+        <v>19652</v>
       </c>
       <c r="B19" t="s">
         <v>56</v>
       </c>
       <c r="C19">
-        <v>3260</v>
+        <v>3266</v>
       </c>
       <c r="D19" t="s">
         <v>61</v>
@@ -2821,91 +2821,91 @@
         <v>64</v>
       </c>
       <c r="G19">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="H19">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="I19" t="s">
         <v>66</v>
       </c>
       <c r="J19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K19">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="L19">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="M19">
-        <v>33.4</v>
+        <v>42.4</v>
       </c>
       <c r="N19">
-        <v>9.4</v>
+        <v>9.9</v>
       </c>
       <c r="O19">
-        <v>18.3</v>
+        <v>21.1</v>
       </c>
       <c r="P19">
-        <v>0.513</v>
+        <v>0.472</v>
       </c>
       <c r="Q19">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="R19">
-        <v>6.3</v>
+        <v>3.9</v>
       </c>
       <c r="S19">
-        <v>0.365</v>
+        <v>0.351</v>
       </c>
       <c r="T19">
-        <v>7.1</v>
+        <v>8.6</v>
       </c>
       <c r="U19">
-        <v>12</v>
+        <v>17.2</v>
       </c>
       <c r="V19">
-        <v>0.591</v>
+        <v>0.499</v>
       </c>
       <c r="W19">
-        <v>0.576</v>
+        <v>0.504</v>
       </c>
       <c r="X19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Y19">
-        <v>5.7</v>
+        <v>8</v>
       </c>
       <c r="Z19">
-        <v>0.698</v>
+        <v>0.75</v>
       </c>
       <c r="AA19">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="AB19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AC19">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="AD19">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="AE19">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="AF19">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="AG19">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="AH19">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="AI19">
-        <v>25</v>
+        <v>27.2</v>
       </c>
       <c r="AJ19" t="s">
         <v>87</v>
@@ -2917,18 +2917,18 @@
         <v>92</v>
       </c>
       <c r="AM19">
-        <v>2021</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="20" spans="1:39">
       <c r="A20">
-        <v>19652</v>
+        <v>20211</v>
       </c>
       <c r="B20" t="s">
         <v>57</v>
       </c>
       <c r="C20">
-        <v>3260</v>
+        <v>3266</v>
       </c>
       <c r="D20" t="s">
         <v>61</v>
@@ -2937,13 +2937,13 @@
         <v>1984</v>
       </c>
       <c r="F20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G20">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I20" t="s">
         <v>66</v>
@@ -2952,79 +2952,79 @@
         <v>67</v>
       </c>
       <c r="K20">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L20">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M20">
-        <v>42.4</v>
+        <v>42.5</v>
       </c>
       <c r="N20">
-        <v>9.9</v>
+        <v>11.1</v>
       </c>
       <c r="O20">
-        <v>21.1</v>
+        <v>23.1</v>
       </c>
       <c r="P20">
-        <v>0.472</v>
+        <v>0.48</v>
       </c>
       <c r="Q20">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="R20">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="S20">
-        <v>0.351</v>
+        <v>0.335</v>
       </c>
       <c r="T20">
-        <v>8.6</v>
+        <v>9.5</v>
       </c>
       <c r="U20">
-        <v>17.2</v>
+        <v>18.3</v>
       </c>
       <c r="V20">
-        <v>0.499</v>
+        <v>0.518</v>
       </c>
       <c r="W20">
-        <v>0.504</v>
+        <v>0.515</v>
       </c>
       <c r="X20">
-        <v>6</v>
+        <v>7.6</v>
       </c>
       <c r="Y20">
-        <v>8</v>
+        <v>10.3</v>
       </c>
       <c r="Z20">
-        <v>0.75</v>
+        <v>0.738</v>
       </c>
       <c r="AA20">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="AB20">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AC20">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AD20">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="AE20">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="AF20">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AG20">
         <v>3.3</v>
       </c>
       <c r="AH20">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="AI20">
-        <v>27.2</v>
+        <v>31.4</v>
       </c>
       <c r="AJ20" t="s">
         <v>88</v>
@@ -3036,18 +3036,18 @@
         <v>92</v>
       </c>
       <c r="AM20">
-        <v>2005</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="21" spans="1:39">
       <c r="A21">
-        <v>24853</v>
+        <v>27322</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
       </c>
       <c r="C21">
-        <v>3260</v>
+        <v>3266</v>
       </c>
       <c r="D21" t="s">
         <v>61</v>
@@ -3059,91 +3059,91 @@
         <v>63</v>
       </c>
       <c r="G21">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H21">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
         <v>66</v>
       </c>
       <c r="J21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K21">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L21">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M21">
-        <v>37.7</v>
+        <v>36.9</v>
       </c>
       <c r="N21">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="O21">
-        <v>17.6</v>
+        <v>19.3</v>
       </c>
       <c r="P21">
-        <v>0.5669999999999999</v>
+        <v>0.542</v>
       </c>
       <c r="Q21">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="R21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S21">
-        <v>0.379</v>
+        <v>0.367</v>
       </c>
       <c r="T21">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="U21">
-        <v>13.6</v>
+        <v>14.3</v>
       </c>
       <c r="V21">
-        <v>0.622</v>
+        <v>0.603</v>
       </c>
       <c r="W21">
-        <v>0.61</v>
+        <v>0.59</v>
       </c>
       <c r="X21">
-        <v>5.7</v>
+        <v>4.7</v>
       </c>
       <c r="Y21">
-        <v>7.6</v>
+        <v>6.5</v>
       </c>
       <c r="Z21">
-        <v>0.75</v>
+        <v>0.731</v>
       </c>
       <c r="AA21">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="AB21">
-        <v>5.9</v>
+        <v>7.5</v>
       </c>
       <c r="AC21">
-        <v>6.9</v>
+        <v>8.6</v>
       </c>
       <c r="AD21">
-        <v>6.3</v>
+        <v>9.1</v>
       </c>
       <c r="AE21">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AF21">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="AG21">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="AH21">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AI21">
-        <v>27.1</v>
+        <v>27.5</v>
       </c>
       <c r="AJ21" t="s">
         <v>89</v>
@@ -3155,18 +3155,18 @@
         <v>92</v>
       </c>
       <c r="AM21">
-        <v>2014</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="22" spans="1:39">
       <c r="A22">
-        <v>28009</v>
+        <v>23706</v>
       </c>
       <c r="B22" t="s">
         <v>59</v>
       </c>
       <c r="C22">
-        <v>3260</v>
+        <v>3266</v>
       </c>
       <c r="D22" t="s">
         <v>61</v>
@@ -3175,13 +3175,13 @@
         <v>1984</v>
       </c>
       <c r="F22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G22">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="H22">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I22" t="s">
         <v>66</v>
@@ -3190,79 +3190,79 @@
         <v>68</v>
       </c>
       <c r="K22">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="L22">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="M22">
-        <v>35.2</v>
+        <v>37.5</v>
       </c>
       <c r="N22">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="O22">
-        <v>19.9</v>
+        <v>18.9</v>
       </c>
       <c r="P22">
-        <v>0.51</v>
+        <v>0.531</v>
       </c>
       <c r="Q22">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="R22">
-        <v>5.9</v>
+        <v>2.4</v>
       </c>
       <c r="S22">
-        <v>0.339</v>
+        <v>0.362</v>
       </c>
       <c r="T22">
+        <v>9.1</v>
+      </c>
+      <c r="U22">
+        <v>16.5</v>
+      </c>
+      <c r="V22">
+        <v>0.556</v>
+      </c>
+      <c r="W22">
+        <v>0.554</v>
+      </c>
+      <c r="X22">
+        <v>6.2</v>
+      </c>
+      <c r="Y22">
         <v>8.1</v>
       </c>
-      <c r="U22">
-        <v>14</v>
-      </c>
-      <c r="V22">
-        <v>0.582</v>
-      </c>
-      <c r="W22">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="X22">
-        <v>5.1</v>
-      </c>
-      <c r="Y22">
-        <v>7.6</v>
-      </c>
       <c r="Z22">
-        <v>0.665</v>
+        <v>0.771</v>
       </c>
       <c r="AA22">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AB22">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="AC22">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="AD22">
-        <v>8.300000000000001</v>
+        <v>6.2</v>
       </c>
       <c r="AE22">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="AF22">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AG22">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="AH22">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="AI22">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="AJ22" t="s">
         <v>90</v>
@@ -3274,18 +3274,18 @@
         <v>92</v>
       </c>
       <c r="AM22">
-        <v>2019</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="23" spans="1:39">
       <c r="A23">
-        <v>19051</v>
+        <v>26107</v>
       </c>
       <c r="B23" t="s">
         <v>60</v>
       </c>
       <c r="C23">
-        <v>3260</v>
+        <v>3266</v>
       </c>
       <c r="D23" t="s">
         <v>61</v>
@@ -3294,13 +3294,13 @@
         <v>1984</v>
       </c>
       <c r="F23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G23">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I23" t="s">
         <v>66</v>
@@ -3309,79 +3309,79 @@
         <v>67</v>
       </c>
       <c r="K23">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L23">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M23">
-        <v>39.5</v>
+        <v>35.6</v>
       </c>
       <c r="N23">
-        <v>7.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="O23">
-        <v>18.9</v>
+        <v>18.6</v>
       </c>
       <c r="P23">
-        <v>0.417</v>
+        <v>0.52</v>
       </c>
       <c r="Q23">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="R23">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
       <c r="S23">
-        <v>0.29</v>
+        <v>0.309</v>
       </c>
       <c r="T23">
-        <v>7.1</v>
+        <v>8.6</v>
       </c>
       <c r="U23">
-        <v>16.1</v>
+        <v>14.9</v>
       </c>
       <c r="V23">
-        <v>0.438</v>
+        <v>0.573</v>
       </c>
       <c r="W23">
-        <v>0.438</v>
+        <v>0.551</v>
       </c>
       <c r="X23">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="Y23">
-        <v>5.8</v>
+        <v>6.5</v>
       </c>
       <c r="Z23">
-        <v>0.754</v>
+        <v>0.731</v>
       </c>
       <c r="AA23">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="AB23">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="AC23">
-        <v>5.5</v>
+        <v>7.4</v>
       </c>
       <c r="AD23">
-        <v>5.9</v>
+        <v>6.8</v>
       </c>
       <c r="AE23">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AF23">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="AG23">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="AH23">
         <v>1.9</v>
       </c>
       <c r="AI23">
-        <v>20.9</v>
+        <v>25.3</v>
       </c>
       <c r="AJ23" t="s">
         <v>91</v>
@@ -3393,7 +3393,7 @@
         <v>92</v>
       </c>
       <c r="AM23">
-        <v>2004</v>
+        <v>2016</v>
       </c>
     </row>
   </sheetData>

--- a/lebron_james_per_game_averages.xlsx
+++ b/lebron_james_per_game_averages.xlsx
@@ -136,66 +136,66 @@
     <t>2004</t>
   </si>
   <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
     <t>2014</t>
   </si>
   <si>
-    <t>2024</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2017</t>
+    <t>2012</t>
   </si>
   <si>
     <t>2010</t>
   </si>
   <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
     <t>2020</t>
   </si>
   <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2022</t>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>2008</t>
   </si>
   <si>
     <t>2013</t>
   </si>
   <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2025</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
     <t>2016</t>
   </si>
   <si>
@@ -205,12 +205,12 @@
     <t>SG</t>
   </si>
   <si>
+    <t>SF</t>
+  </si>
+  <si>
     <t>PF</t>
   </si>
   <si>
-    <t>SF</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
@@ -220,73 +220,73 @@
     <t>CLE</t>
   </si>
   <si>
+    <t>LAL</t>
+  </si>
+  <si>
     <t>MIA</t>
   </si>
   <si>
-    <t>LAL</t>
-  </si>
-  <si>
     <t>2003-04</t>
   </si>
   <si>
+    <t>2018-19</t>
+  </si>
+  <si>
+    <t>2021-22</t>
+  </si>
+  <si>
+    <t>2016-17</t>
+  </si>
+  <si>
+    <t>2017-18</t>
+  </si>
+  <si>
+    <t>2006-07</t>
+  </si>
+  <si>
+    <t>2008-09</t>
+  </si>
+  <si>
+    <t>2023-24</t>
+  </si>
+  <si>
+    <t>2014-15</t>
+  </si>
+  <si>
     <t>2013-14</t>
   </si>
   <si>
-    <t>2023-24</t>
-  </si>
-  <si>
-    <t>2014-15</t>
-  </si>
-  <si>
-    <t>2008-09</t>
-  </si>
-  <si>
-    <t>2016-17</t>
+    <t>2011-12</t>
   </si>
   <si>
     <t>2009-10</t>
   </si>
   <si>
+    <t>2010-11</t>
+  </si>
+  <si>
+    <t>2020-21</t>
+  </si>
+  <si>
+    <t>2005-06</t>
+  </si>
+  <si>
     <t>2019-20</t>
   </si>
   <si>
-    <t>2020-21</t>
-  </si>
-  <si>
-    <t>2010-11</t>
-  </si>
-  <si>
-    <t>2021-22</t>
+    <t>2022-23</t>
+  </si>
+  <si>
+    <t>2004-05</t>
+  </si>
+  <si>
+    <t>2024-25</t>
+  </si>
+  <si>
+    <t>2007-08</t>
   </si>
   <si>
     <t>2012-13</t>
-  </si>
-  <si>
-    <t>2018-19</t>
-  </si>
-  <si>
-    <t>2006-07</t>
-  </si>
-  <si>
-    <t>2024-25</t>
-  </si>
-  <si>
-    <t>2007-08</t>
-  </si>
-  <si>
-    <t>2022-23</t>
-  </si>
-  <si>
-    <t>2004-05</t>
-  </si>
-  <si>
-    <t>2005-06</t>
-  </si>
-  <si>
-    <t>2017-18</t>
-  </si>
-  <si>
-    <t>2011-12</t>
   </si>
   <si>
     <t>2015-16</t>
@@ -780,13 +780,13 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2">
-        <v>19051</v>
+        <v>19050</v>
       </c>
       <c r="B2" t="s">
         <v>39</v>
       </c>
       <c r="C2">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="D2" t="s">
         <v>61</v>
@@ -899,13 +899,13 @@
     </row>
     <row r="3" spans="1:39">
       <c r="A3">
-        <v>24853</v>
+        <v>28007</v>
       </c>
       <c r="B3" t="s">
         <v>40</v>
       </c>
       <c r="C3">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="D3" t="s">
         <v>61</v>
@@ -917,10 +917,10 @@
         <v>63</v>
       </c>
       <c r="G3">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H3">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
         <v>66</v>
@@ -929,79 +929,79 @@
         <v>68</v>
       </c>
       <c r="K3">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="L3">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="M3">
-        <v>37.7</v>
+        <v>35.2</v>
       </c>
       <c r="N3">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="O3">
-        <v>17.6</v>
+        <v>19.9</v>
       </c>
       <c r="P3">
-        <v>0.5669999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="Q3">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="R3">
-        <v>4</v>
+        <v>5.9</v>
       </c>
       <c r="S3">
-        <v>0.379</v>
+        <v>0.339</v>
       </c>
       <c r="T3">
-        <v>8.5</v>
+        <v>8.1</v>
       </c>
       <c r="U3">
-        <v>13.6</v>
+        <v>14</v>
       </c>
       <c r="V3">
-        <v>0.622</v>
+        <v>0.582</v>
       </c>
       <c r="W3">
-        <v>0.61</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="X3">
-        <v>5.7</v>
+        <v>5.1</v>
       </c>
       <c r="Y3">
         <v>7.6</v>
       </c>
       <c r="Z3">
-        <v>0.75</v>
+        <v>0.665</v>
       </c>
       <c r="AA3">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AB3">
-        <v>5.9</v>
+        <v>7.4</v>
       </c>
       <c r="AC3">
-        <v>6.9</v>
+        <v>8.5</v>
       </c>
       <c r="AD3">
-        <v>6.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AE3">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="AF3">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="AG3">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AH3">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AI3">
-        <v>27.1</v>
+        <v>27.4</v>
       </c>
       <c r="AJ3" t="s">
         <v>71</v>
@@ -1013,18 +1013,18 @@
         <v>92</v>
       </c>
       <c r="AM3">
-        <v>2014</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="4" spans="1:39">
       <c r="A4">
-        <v>31585</v>
+        <v>30149</v>
       </c>
       <c r="B4" t="s">
         <v>41</v>
       </c>
       <c r="C4">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="D4" t="s">
         <v>61</v>
@@ -1033,94 +1033,94 @@
         <v>1984</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G4">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H4">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s">
         <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K4">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="L4">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>35.3</v>
+        <v>37.2</v>
       </c>
       <c r="N4">
-        <v>9.6</v>
+        <v>11.4</v>
       </c>
       <c r="O4">
-        <v>17.9</v>
+        <v>21.8</v>
       </c>
       <c r="P4">
-        <v>0.54</v>
+        <v>0.524</v>
       </c>
       <c r="Q4">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="R4">
-        <v>5.1</v>
+        <v>8</v>
       </c>
       <c r="S4">
-        <v>0.41</v>
+        <v>0.359</v>
       </c>
       <c r="T4">
-        <v>7.5</v>
+        <v>8.6</v>
       </c>
       <c r="U4">
-        <v>12.8</v>
+        <v>13.8</v>
       </c>
       <c r="V4">
-        <v>0.592</v>
+        <v>0.62</v>
       </c>
       <c r="W4">
-        <v>0.599</v>
+        <v>0.59</v>
       </c>
       <c r="X4">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="Y4">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="Z4">
-        <v>0.75</v>
+        <v>0.756</v>
       </c>
       <c r="AA4">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="AB4">
-        <v>6.4</v>
+        <v>7.1</v>
       </c>
       <c r="AC4">
-        <v>7.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD4">
-        <v>8.300000000000001</v>
+        <v>6.2</v>
       </c>
       <c r="AE4">
         <v>1.3</v>
       </c>
       <c r="AF4">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="AG4">
         <v>3.5</v>
       </c>
       <c r="AH4">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="AI4">
-        <v>25.7</v>
+        <v>30.3</v>
       </c>
       <c r="AJ4" t="s">
         <v>72</v>
@@ -1132,18 +1132,18 @@
         <v>92</v>
       </c>
       <c r="AM4">
-        <v>2024</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="5" spans="1:39">
       <c r="A5">
-        <v>25491</v>
+        <v>26680</v>
       </c>
       <c r="B5" t="s">
         <v>42</v>
       </c>
       <c r="C5">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="D5" t="s">
         <v>61</v>
@@ -1152,13 +1152,13 @@
         <v>1984</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G5">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I5" t="s">
         <v>66</v>
@@ -1167,79 +1167,79 @@
         <v>67</v>
       </c>
       <c r="K5">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L5">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="M5">
-        <v>36.1</v>
+        <v>37.8</v>
       </c>
       <c r="N5">
-        <v>9</v>
+        <v>9.9</v>
       </c>
       <c r="O5">
-        <v>18.5</v>
+        <v>18.2</v>
       </c>
       <c r="P5">
-        <v>0.488</v>
+        <v>0.548</v>
       </c>
       <c r="Q5">
         <v>1.7</v>
       </c>
       <c r="R5">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="S5">
-        <v>0.354</v>
+        <v>0.363</v>
       </c>
       <c r="T5">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="U5">
+        <v>13.5</v>
+      </c>
+      <c r="V5">
+        <v>0.611</v>
+      </c>
+      <c r="W5">
+        <v>0.594</v>
+      </c>
+      <c r="X5">
+        <v>4.8</v>
+      </c>
+      <c r="Y5">
+        <v>7.2</v>
+      </c>
+      <c r="Z5">
+        <v>0.674</v>
+      </c>
+      <c r="AA5">
+        <v>1.3</v>
+      </c>
+      <c r="AB5">
         <v>7.3</v>
       </c>
-      <c r="U5">
-        <v>13.6</v>
-      </c>
-      <c r="V5">
-        <v>0.536</v>
-      </c>
-      <c r="W5">
-        <v>0.535</v>
-      </c>
-      <c r="X5">
-        <v>5.4</v>
-      </c>
-      <c r="Y5">
-        <v>7.7</v>
-      </c>
-      <c r="Z5">
-        <v>0.71</v>
-      </c>
-      <c r="AA5">
-        <v>0.7</v>
-      </c>
-      <c r="AB5">
-        <v>5.3</v>
-      </c>
       <c r="AC5">
-        <v>6</v>
+        <v>8.6</v>
       </c>
       <c r="AD5">
-        <v>7.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AE5">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="AF5">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="AG5">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="AH5">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AI5">
-        <v>25.3</v>
+        <v>26.4</v>
       </c>
       <c r="AJ5" t="s">
         <v>73</v>
@@ -1251,18 +1251,18 @@
         <v>92</v>
       </c>
       <c r="AM5">
-        <v>2015</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="A6">
-        <v>21909</v>
+        <v>27321</v>
       </c>
       <c r="B6" t="s">
         <v>43</v>
       </c>
       <c r="C6">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="D6" t="s">
         <v>61</v>
@@ -1274,10 +1274,10 @@
         <v>64</v>
       </c>
       <c r="G6">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
         <v>66</v>
@@ -1286,79 +1286,79 @@
         <v>67</v>
       </c>
       <c r="K6">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L6">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M6">
-        <v>37.7</v>
+        <v>36.9</v>
       </c>
       <c r="N6">
-        <v>9.699999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="O6">
-        <v>19.9</v>
+        <v>19.3</v>
       </c>
       <c r="P6">
-        <v>0.489</v>
+        <v>0.542</v>
       </c>
       <c r="Q6">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="R6">
+        <v>5</v>
+      </c>
+      <c r="S6">
+        <v>0.367</v>
+      </c>
+      <c r="T6">
+        <v>8.6</v>
+      </c>
+      <c r="U6">
+        <v>14.3</v>
+      </c>
+      <c r="V6">
+        <v>0.603</v>
+      </c>
+      <c r="W6">
+        <v>0.59</v>
+      </c>
+      <c r="X6">
         <v>4.7</v>
       </c>
-      <c r="S6">
-        <v>0.344</v>
-      </c>
-      <c r="T6">
-        <v>8.1</v>
-      </c>
-      <c r="U6">
-        <v>15.2</v>
-      </c>
-      <c r="V6">
-        <v>0.535</v>
-      </c>
-      <c r="W6">
-        <v>0.53</v>
-      </c>
-      <c r="X6">
-        <v>7.3</v>
-      </c>
       <c r="Y6">
-        <v>9.4</v>
+        <v>6.5</v>
       </c>
       <c r="Z6">
-        <v>0.78</v>
+        <v>0.731</v>
       </c>
       <c r="AA6">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AB6">
-        <v>6.3</v>
+        <v>7.5</v>
       </c>
       <c r="AC6">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="AD6">
-        <v>7.2</v>
+        <v>9.1</v>
       </c>
       <c r="AE6">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="AF6">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="AG6">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="AH6">
         <v>1.7</v>
       </c>
       <c r="AI6">
-        <v>28.4</v>
+        <v>27.5</v>
       </c>
       <c r="AJ6" t="s">
         <v>74</v>
@@ -1370,18 +1370,18 @@
         <v>92</v>
       </c>
       <c r="AM6">
-        <v>2009</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="7" spans="1:39">
       <c r="A7">
-        <v>26682</v>
+        <v>20760</v>
       </c>
       <c r="B7" t="s">
         <v>44</v>
       </c>
       <c r="C7">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="D7" t="s">
         <v>61</v>
@@ -1390,13 +1390,13 @@
         <v>1984</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G7">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="H7">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I7" t="s">
         <v>66</v>
@@ -1405,79 +1405,79 @@
         <v>67</v>
       </c>
       <c r="K7">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L7">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M7">
-        <v>37.8</v>
+        <v>40.9</v>
       </c>
       <c r="N7">
         <v>9.9</v>
       </c>
       <c r="O7">
-        <v>18.2</v>
+        <v>20.8</v>
       </c>
       <c r="P7">
-        <v>0.548</v>
+        <v>0.476</v>
       </c>
       <c r="Q7">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="R7">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="S7">
-        <v>0.363</v>
+        <v>0.319</v>
       </c>
       <c r="T7">
-        <v>8.300000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="U7">
-        <v>13.5</v>
+        <v>16.8</v>
       </c>
       <c r="V7">
-        <v>0.611</v>
+        <v>0.513</v>
       </c>
       <c r="W7">
-        <v>0.594</v>
+        <v>0.507</v>
       </c>
       <c r="X7">
-        <v>4.8</v>
+        <v>6.3</v>
       </c>
       <c r="Y7">
-        <v>7.2</v>
+        <v>9</v>
       </c>
       <c r="Z7">
-        <v>0.674</v>
+        <v>0.698</v>
       </c>
       <c r="AA7">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="AB7">
-        <v>7.3</v>
+        <v>5.7</v>
       </c>
       <c r="AC7">
-        <v>8.6</v>
+        <v>6.7</v>
       </c>
       <c r="AD7">
-        <v>8.699999999999999</v>
+        <v>6</v>
       </c>
       <c r="AE7">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="AF7">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="AG7">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="AH7">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="AI7">
-        <v>26.4</v>
+        <v>27.3</v>
       </c>
       <c r="AJ7" t="s">
         <v>75</v>
@@ -1489,18 +1489,18 @@
         <v>92</v>
       </c>
       <c r="AM7">
-        <v>2017</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="8" spans="1:39">
       <c r="A8">
-        <v>22500</v>
+        <v>21908</v>
       </c>
       <c r="B8" t="s">
         <v>45</v>
       </c>
       <c r="C8">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="D8" t="s">
         <v>61</v>
@@ -1509,13 +1509,13 @@
         <v>1984</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I8" t="s">
         <v>66</v>
@@ -1524,79 +1524,79 @@
         <v>67</v>
       </c>
       <c r="K8">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="L8">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="M8">
-        <v>39</v>
+        <v>37.7</v>
       </c>
       <c r="N8">
-        <v>10.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="O8">
-        <v>20.1</v>
+        <v>19.9</v>
       </c>
       <c r="P8">
-        <v>0.503</v>
+        <v>0.489</v>
       </c>
       <c r="Q8">
+        <v>1.6</v>
+      </c>
+      <c r="R8">
+        <v>4.7</v>
+      </c>
+      <c r="S8">
+        <v>0.344</v>
+      </c>
+      <c r="T8">
+        <v>8.1</v>
+      </c>
+      <c r="U8">
+        <v>15.2</v>
+      </c>
+      <c r="V8">
+        <v>0.535</v>
+      </c>
+      <c r="W8">
+        <v>0.53</v>
+      </c>
+      <c r="X8">
+        <v>7.3</v>
+      </c>
+      <c r="Y8">
+        <v>9.4</v>
+      </c>
+      <c r="Z8">
+        <v>0.78</v>
+      </c>
+      <c r="AA8">
+        <v>1.3</v>
+      </c>
+      <c r="AB8">
+        <v>6.3</v>
+      </c>
+      <c r="AC8">
+        <v>7.6</v>
+      </c>
+      <c r="AD8">
+        <v>7.2</v>
+      </c>
+      <c r="AE8">
         <v>1.7</v>
       </c>
-      <c r="R8">
-        <v>5.1</v>
-      </c>
-      <c r="S8">
-        <v>0.333</v>
-      </c>
-      <c r="T8">
-        <v>8.4</v>
-      </c>
-      <c r="U8">
-        <v>15</v>
-      </c>
-      <c r="V8">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="W8">
-        <v>0.545</v>
-      </c>
-      <c r="X8">
-        <v>7.8</v>
-      </c>
-      <c r="Y8">
-        <v>10.2</v>
-      </c>
-      <c r="Z8">
-        <v>0.767</v>
-      </c>
-      <c r="AA8">
-        <v>0.9</v>
-      </c>
-      <c r="AB8">
-        <v>6.4</v>
-      </c>
-      <c r="AC8">
-        <v>7.3</v>
-      </c>
-      <c r="AD8">
-        <v>8.6</v>
-      </c>
-      <c r="AE8">
-        <v>1.6</v>
-      </c>
       <c r="AF8">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AG8">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="AH8">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AI8">
-        <v>29.7</v>
+        <v>28.4</v>
       </c>
       <c r="AJ8" t="s">
         <v>76</v>
@@ -1608,18 +1608,18 @@
         <v>92</v>
       </c>
       <c r="AM8">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="A9">
-        <v>28697</v>
+        <v>31585</v>
       </c>
       <c r="B9" t="s">
         <v>46</v>
       </c>
       <c r="C9">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="D9" t="s">
         <v>61</v>
@@ -1628,117 +1628,117 @@
         <v>1984</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G9">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I9" t="s">
         <v>66</v>
       </c>
       <c r="J9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K9">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="L9">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M9">
-        <v>34.6</v>
+        <v>35.3</v>
       </c>
       <c r="N9">
         <v>9.6</v>
       </c>
       <c r="O9">
-        <v>19.4</v>
+        <v>17.9</v>
       </c>
       <c r="P9">
-        <v>0.493</v>
+        <v>0.54</v>
       </c>
       <c r="Q9">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R9">
-        <v>6.3</v>
+        <v>5.1</v>
       </c>
       <c r="S9">
-        <v>0.348</v>
+        <v>0.41</v>
       </c>
       <c r="T9">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="U9">
-        <v>13.1</v>
+        <v>12.8</v>
       </c>
       <c r="V9">
-        <v>0.5639999999999999</v>
+        <v>0.592</v>
       </c>
       <c r="W9">
-        <v>0.55</v>
+        <v>0.599</v>
       </c>
       <c r="X9">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="Y9">
         <v>5.7</v>
       </c>
       <c r="Z9">
-        <v>0.6929999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AA9">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AB9">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="AC9">
-        <v>7.8</v>
+        <v>7.3</v>
       </c>
       <c r="AD9">
-        <v>10.2</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AE9">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AF9">
         <v>0.5</v>
       </c>
       <c r="AG9">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="AH9">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="AI9">
-        <v>25.3</v>
+        <v>25.7</v>
       </c>
       <c r="AJ9" t="s">
         <v>77</v>
       </c>
       <c r="AK9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AL9" t="s">
         <v>92</v>
       </c>
       <c r="AM9">
-        <v>2020</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="A10">
-        <v>29371</v>
+        <v>25490</v>
       </c>
       <c r="B10" t="s">
         <v>47</v>
       </c>
       <c r="C10">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="D10" t="s">
         <v>61</v>
@@ -1747,94 +1747,94 @@
         <v>1984</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G10">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H10">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I10" t="s">
         <v>66</v>
       </c>
       <c r="J10" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10">
         <v>69</v>
       </c>
-      <c r="K10">
-        <v>45</v>
-      </c>
       <c r="L10">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="M10">
-        <v>33.4</v>
+        <v>36.1</v>
       </c>
       <c r="N10">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="O10">
-        <v>18.3</v>
+        <v>18.5</v>
       </c>
       <c r="P10">
-        <v>0.513</v>
+        <v>0.488</v>
       </c>
       <c r="Q10">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="R10">
-        <v>6.3</v>
+        <v>4.9</v>
       </c>
       <c r="S10">
-        <v>0.365</v>
+        <v>0.354</v>
       </c>
       <c r="T10">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="U10">
-        <v>12</v>
+        <v>13.6</v>
       </c>
       <c r="V10">
-        <v>0.591</v>
+        <v>0.536</v>
       </c>
       <c r="W10">
-        <v>0.576</v>
+        <v>0.535</v>
       </c>
       <c r="X10">
-        <v>4</v>
+        <v>5.4</v>
       </c>
       <c r="Y10">
-        <v>5.7</v>
+        <v>7.7</v>
       </c>
       <c r="Z10">
-        <v>0.698</v>
+        <v>0.71</v>
       </c>
       <c r="AA10">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="AB10">
-        <v>7</v>
+        <v>5.3</v>
       </c>
       <c r="AC10">
-        <v>7.7</v>
+        <v>6</v>
       </c>
       <c r="AD10">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AE10">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="AF10">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="AG10">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="AH10">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AI10">
-        <v>25</v>
+        <v>25.3</v>
       </c>
       <c r="AJ10" t="s">
         <v>78</v>
@@ -1846,18 +1846,18 @@
         <v>92</v>
       </c>
       <c r="AM10">
-        <v>2021</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="A11">
-        <v>23116</v>
+        <v>24852</v>
       </c>
       <c r="B11" t="s">
         <v>48</v>
       </c>
       <c r="C11">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="D11" t="s">
         <v>61</v>
@@ -1869,91 +1869,91 @@
         <v>64</v>
       </c>
       <c r="G11">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I11" t="s">
         <v>66</v>
       </c>
       <c r="J11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K11">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L11">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M11">
-        <v>38.8</v>
+        <v>37.7</v>
       </c>
       <c r="N11">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="O11">
-        <v>18.8</v>
+        <v>17.6</v>
       </c>
       <c r="P11">
-        <v>0.51</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="Q11">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="R11">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="S11">
-        <v>0.33</v>
+        <v>0.379</v>
       </c>
       <c r="T11">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="U11">
-        <v>15.3</v>
+        <v>13.6</v>
       </c>
       <c r="V11">
-        <v>0.552</v>
+        <v>0.622</v>
       </c>
       <c r="W11">
-        <v>0.541</v>
+        <v>0.61</v>
       </c>
       <c r="X11">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="Y11">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="Z11">
-        <v>0.759</v>
+        <v>0.75</v>
       </c>
       <c r="AA11">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AB11">
-        <v>6.5</v>
+        <v>5.9</v>
       </c>
       <c r="AC11">
-        <v>7.5</v>
+        <v>6.9</v>
       </c>
       <c r="AD11">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="AE11">
         <v>1.6</v>
       </c>
       <c r="AF11">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="AG11">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AH11">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="AI11">
-        <v>26.7</v>
+        <v>27.1</v>
       </c>
       <c r="AJ11" t="s">
         <v>79</v>
@@ -1965,18 +1965,18 @@
         <v>92</v>
       </c>
       <c r="AM11">
-        <v>2011</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="A12">
-        <v>30150</v>
+        <v>23703</v>
       </c>
       <c r="B12" t="s">
         <v>49</v>
       </c>
       <c r="C12">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="D12" t="s">
         <v>61</v>
@@ -1988,10 +1988,10 @@
         <v>63</v>
       </c>
       <c r="G12">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H12">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I12" t="s">
         <v>66</v>
@@ -2000,79 +2000,79 @@
         <v>69</v>
       </c>
       <c r="K12">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="L12">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="M12">
-        <v>37.2</v>
+        <v>37.5</v>
       </c>
       <c r="N12">
-        <v>11.4</v>
+        <v>10</v>
       </c>
       <c r="O12">
-        <v>21.8</v>
+        <v>18.9</v>
       </c>
       <c r="P12">
-        <v>0.524</v>
+        <v>0.531</v>
       </c>
       <c r="Q12">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="R12">
-        <v>8</v>
+        <v>2.4</v>
       </c>
       <c r="S12">
-        <v>0.359</v>
+        <v>0.362</v>
       </c>
       <c r="T12">
-        <v>8.6</v>
+        <v>9.1</v>
       </c>
       <c r="U12">
-        <v>13.8</v>
+        <v>16.5</v>
       </c>
       <c r="V12">
-        <v>0.62</v>
+        <v>0.556</v>
       </c>
       <c r="W12">
-        <v>0.59</v>
+        <v>0.554</v>
       </c>
       <c r="X12">
-        <v>4.5</v>
+        <v>6.2</v>
       </c>
       <c r="Y12">
-        <v>6</v>
+        <v>8.1</v>
       </c>
       <c r="Z12">
-        <v>0.756</v>
+        <v>0.771</v>
       </c>
       <c r="AA12">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="AB12">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
       <c r="AC12">
-        <v>8.199999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="AD12">
         <v>6.2</v>
       </c>
       <c r="AE12">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="AF12">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AG12">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AH12">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="AI12">
-        <v>30.3</v>
+        <v>27.1</v>
       </c>
       <c r="AJ12" t="s">
         <v>80</v>
@@ -2084,18 +2084,18 @@
         <v>92</v>
       </c>
       <c r="AM12">
-        <v>2022</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="A13">
-        <v>24275</v>
+        <v>22499</v>
       </c>
       <c r="B13" t="s">
         <v>50</v>
       </c>
       <c r="C13">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="D13" t="s">
         <v>61</v>
@@ -2107,16 +2107,16 @@
         <v>63</v>
       </c>
       <c r="G13">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I13" t="s">
         <v>66</v>
       </c>
       <c r="J13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K13">
         <v>76</v>
@@ -2125,73 +2125,73 @@
         <v>76</v>
       </c>
       <c r="M13">
-        <v>37.9</v>
+        <v>39</v>
       </c>
       <c r="N13">
         <v>10.1</v>
       </c>
       <c r="O13">
-        <v>17.8</v>
+        <v>20.1</v>
       </c>
       <c r="P13">
-        <v>0.5649999999999999</v>
+        <v>0.503</v>
       </c>
       <c r="Q13">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="R13">
-        <v>3.3</v>
+        <v>5.1</v>
       </c>
       <c r="S13">
-        <v>0.406</v>
+        <v>0.333</v>
       </c>
       <c r="T13">
-        <v>8.699999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="U13">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="V13">
-        <v>0.602</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="W13">
-        <v>0.603</v>
+        <v>0.545</v>
       </c>
       <c r="X13">
-        <v>5.3</v>
+        <v>7.8</v>
       </c>
       <c r="Y13">
-        <v>7</v>
+        <v>10.2</v>
       </c>
       <c r="Z13">
-        <v>0.753</v>
+        <v>0.767</v>
       </c>
       <c r="AA13">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="AB13">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AC13">
-        <v>8</v>
+        <v>7.3</v>
       </c>
       <c r="AD13">
-        <v>7.3</v>
+        <v>8.6</v>
       </c>
       <c r="AE13">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="AF13">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AG13">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="AH13">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AI13">
-        <v>26.8</v>
+        <v>29.7</v>
       </c>
       <c r="AJ13" t="s">
         <v>81</v>
@@ -2203,18 +2203,18 @@
         <v>92</v>
       </c>
       <c r="AM13">
-        <v>2013</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14">
-        <v>28009</v>
+        <v>23115</v>
       </c>
       <c r="B14" t="s">
         <v>51</v>
       </c>
       <c r="C14">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="D14" t="s">
         <v>61</v>
@@ -2223,13 +2223,13 @@
         <v>1984</v>
       </c>
       <c r="F14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G14">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H14">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I14" t="s">
         <v>66</v>
@@ -2238,67 +2238,67 @@
         <v>69</v>
       </c>
       <c r="K14">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="L14">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="M14">
-        <v>35.2</v>
+        <v>38.8</v>
       </c>
       <c r="N14">
-        <v>10.1</v>
+        <v>9.6</v>
       </c>
       <c r="O14">
-        <v>19.9</v>
+        <v>18.8</v>
       </c>
       <c r="P14">
         <v>0.51</v>
       </c>
       <c r="Q14">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="R14">
-        <v>5.9</v>
+        <v>3.5</v>
       </c>
       <c r="S14">
-        <v>0.339</v>
+        <v>0.33</v>
       </c>
       <c r="T14">
-        <v>8.1</v>
+        <v>8.4</v>
       </c>
       <c r="U14">
-        <v>14</v>
+        <v>15.3</v>
       </c>
       <c r="V14">
-        <v>0.582</v>
+        <v>0.552</v>
       </c>
       <c r="W14">
-        <v>0.5600000000000001</v>
+        <v>0.541</v>
       </c>
       <c r="X14">
-        <v>5.1</v>
+        <v>6.4</v>
       </c>
       <c r="Y14">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="Z14">
-        <v>0.665</v>
+        <v>0.759</v>
       </c>
       <c r="AA14">
         <v>1</v>
       </c>
       <c r="AB14">
-        <v>7.4</v>
+        <v>6.5</v>
       </c>
       <c r="AC14">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD14">
-        <v>8.300000000000001</v>
+        <v>7</v>
       </c>
       <c r="AE14">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="AF14">
         <v>0.6</v>
@@ -2307,10 +2307,10 @@
         <v>3.6</v>
       </c>
       <c r="AH14">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="AI14">
-        <v>27.4</v>
+        <v>26.7</v>
       </c>
       <c r="AJ14" t="s">
         <v>82</v>
@@ -2322,18 +2322,18 @@
         <v>92</v>
       </c>
       <c r="AM14">
-        <v>2019</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="15" spans="1:39">
       <c r="A15">
-        <v>20761</v>
+        <v>29371</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
       </c>
       <c r="C15">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="D15" t="s">
         <v>61</v>
@@ -2342,94 +2342,94 @@
         <v>1984</v>
       </c>
       <c r="F15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G15">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="I15" t="s">
         <v>66</v>
       </c>
       <c r="J15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K15">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="L15">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="M15">
-        <v>40.9</v>
+        <v>33.4</v>
       </c>
       <c r="N15">
-        <v>9.9</v>
+        <v>9.4</v>
       </c>
       <c r="O15">
-        <v>20.8</v>
+        <v>18.3</v>
       </c>
       <c r="P15">
-        <v>0.476</v>
+        <v>0.513</v>
       </c>
       <c r="Q15">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="R15">
+        <v>6.3</v>
+      </c>
+      <c r="S15">
+        <v>0.365</v>
+      </c>
+      <c r="T15">
+        <v>7.1</v>
+      </c>
+      <c r="U15">
+        <v>12</v>
+      </c>
+      <c r="V15">
+        <v>0.591</v>
+      </c>
+      <c r="W15">
+        <v>0.576</v>
+      </c>
+      <c r="X15">
         <v>4</v>
       </c>
-      <c r="S15">
-        <v>0.319</v>
-      </c>
-      <c r="T15">
-        <v>8.6</v>
-      </c>
-      <c r="U15">
-        <v>16.8</v>
-      </c>
-      <c r="V15">
-        <v>0.513</v>
-      </c>
-      <c r="W15">
-        <v>0.507</v>
-      </c>
-      <c r="X15">
-        <v>6.3</v>
-      </c>
       <c r="Y15">
-        <v>9</v>
+        <v>5.7</v>
       </c>
       <c r="Z15">
         <v>0.698</v>
       </c>
       <c r="AA15">
+        <v>0.6</v>
+      </c>
+      <c r="AB15">
+        <v>7</v>
+      </c>
+      <c r="AC15">
+        <v>7.7</v>
+      </c>
+      <c r="AD15">
+        <v>7.8</v>
+      </c>
+      <c r="AE15">
         <v>1.1</v>
       </c>
-      <c r="AB15">
-        <v>5.7</v>
-      </c>
-      <c r="AC15">
-        <v>6.7</v>
-      </c>
-      <c r="AD15">
-        <v>6</v>
-      </c>
-      <c r="AE15">
+      <c r="AF15">
+        <v>0.6</v>
+      </c>
+      <c r="AG15">
+        <v>3.7</v>
+      </c>
+      <c r="AH15">
         <v>1.6</v>
       </c>
-      <c r="AF15">
-        <v>0.7</v>
-      </c>
-      <c r="AG15">
-        <v>3.2</v>
-      </c>
-      <c r="AH15">
-        <v>2.2</v>
-      </c>
       <c r="AI15">
-        <v>27.3</v>
+        <v>25</v>
       </c>
       <c r="AJ15" t="s">
         <v>83</v>
@@ -2441,18 +2441,18 @@
         <v>92</v>
       </c>
       <c r="AM15">
-        <v>2007</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="A16">
-        <v>32216</v>
+        <v>20210</v>
       </c>
       <c r="B16" t="s">
         <v>53</v>
       </c>
       <c r="C16">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="D16" t="s">
         <v>61</v>
@@ -2461,94 +2461,94 @@
         <v>1984</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G16">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="H16">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="I16" t="s">
         <v>66</v>
       </c>
       <c r="J16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K16">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="L16">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="M16">
-        <v>34.6</v>
+        <v>42.5</v>
       </c>
       <c r="N16">
-        <v>9.199999999999999</v>
+        <v>11.1</v>
       </c>
       <c r="O16">
-        <v>18</v>
+        <v>23.1</v>
       </c>
       <c r="P16">
-        <v>0.512</v>
+        <v>0.48</v>
       </c>
       <c r="Q16">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="R16">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
       <c r="S16">
-        <v>0.379</v>
+        <v>0.335</v>
       </c>
       <c r="T16">
-        <v>7.1</v>
+        <v>9.5</v>
       </c>
       <c r="U16">
-        <v>12.5</v>
+        <v>18.3</v>
       </c>
       <c r="V16">
-        <v>0.57</v>
+        <v>0.518</v>
       </c>
       <c r="W16">
-        <v>0.569</v>
+        <v>0.515</v>
       </c>
       <c r="X16">
-        <v>3.3</v>
+        <v>7.6</v>
       </c>
       <c r="Y16">
-        <v>4.3</v>
+        <v>10.3</v>
       </c>
       <c r="Z16">
-        <v>0.773</v>
+        <v>0.738</v>
       </c>
       <c r="AA16">
         <v>0.9</v>
       </c>
       <c r="AB16">
+        <v>6.1</v>
+      </c>
+      <c r="AC16">
+        <v>7</v>
+      </c>
+      <c r="AD16">
         <v>6.6</v>
       </c>
-      <c r="AC16">
-        <v>7.5</v>
-      </c>
-      <c r="AD16">
-        <v>9</v>
-      </c>
       <c r="AE16">
+        <v>1.6</v>
+      </c>
+      <c r="AF16">
         <v>0.8</v>
       </c>
-      <c r="AF16">
-        <v>0.5</v>
-      </c>
       <c r="AG16">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="AH16">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="AI16">
-        <v>23.8</v>
+        <v>31.4</v>
       </c>
       <c r="AJ16" t="s">
         <v>84</v>
@@ -2560,18 +2560,18 @@
         <v>92</v>
       </c>
       <c r="AM16">
-        <v>2025</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="17" spans="1:39">
       <c r="A17">
-        <v>21320</v>
+        <v>28697</v>
       </c>
       <c r="B17" t="s">
         <v>54</v>
       </c>
       <c r="C17">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="D17" t="s">
         <v>61</v>
@@ -2580,117 +2580,117 @@
         <v>1984</v>
       </c>
       <c r="F17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G17">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I17" t="s">
         <v>66</v>
       </c>
       <c r="J17" t="s">
+        <v>68</v>
+      </c>
+      <c r="K17">
         <v>67</v>
       </c>
-      <c r="K17">
-        <v>75</v>
-      </c>
       <c r="L17">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="M17">
-        <v>40.4</v>
+        <v>34.6</v>
       </c>
       <c r="N17">
-        <v>10.6</v>
+        <v>9.6</v>
       </c>
       <c r="O17">
-        <v>21.9</v>
+        <v>19.4</v>
       </c>
       <c r="P17">
-        <v>0.484</v>
+        <v>0.493</v>
       </c>
       <c r="Q17">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="R17">
-        <v>4.8</v>
+        <v>6.3</v>
       </c>
       <c r="S17">
-        <v>0.315</v>
+        <v>0.348</v>
       </c>
       <c r="T17">
-        <v>9.1</v>
+        <v>7.4</v>
       </c>
       <c r="U17">
-        <v>17.1</v>
+        <v>13.1</v>
       </c>
       <c r="V17">
-        <v>0.531</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="W17">
-        <v>0.518</v>
+        <v>0.55</v>
       </c>
       <c r="X17">
-        <v>7.3</v>
+        <v>3.9</v>
       </c>
       <c r="Y17">
-        <v>10.3</v>
+        <v>5.7</v>
       </c>
       <c r="Z17">
-        <v>0.712</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="AA17">
+        <v>1</v>
+      </c>
+      <c r="AB17">
+        <v>6.9</v>
+      </c>
+      <c r="AC17">
+        <v>7.8</v>
+      </c>
+      <c r="AD17">
+        <v>10.2</v>
+      </c>
+      <c r="AE17">
+        <v>1.2</v>
+      </c>
+      <c r="AF17">
+        <v>0.5</v>
+      </c>
+      <c r="AG17">
+        <v>3.9</v>
+      </c>
+      <c r="AH17">
         <v>1.8</v>
       </c>
-      <c r="AB17">
-        <v>6.1</v>
-      </c>
-      <c r="AC17">
-        <v>7.9</v>
-      </c>
-      <c r="AD17">
-        <v>7.2</v>
-      </c>
-      <c r="AE17">
-        <v>1.8</v>
-      </c>
-      <c r="AF17">
-        <v>1.1</v>
-      </c>
-      <c r="AG17">
-        <v>3.4</v>
-      </c>
-      <c r="AH17">
-        <v>2.2</v>
-      </c>
       <c r="AI17">
-        <v>30</v>
+        <v>25.3</v>
       </c>
       <c r="AJ17" t="s">
         <v>85</v>
       </c>
       <c r="AK17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AL17" t="s">
         <v>92</v>
       </c>
       <c r="AM17">
-        <v>2008</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="18" spans="1:39">
       <c r="A18">
-        <v>30873</v>
+        <v>30872</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
       </c>
       <c r="C18">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="D18" t="s">
         <v>61</v>
@@ -2699,7 +2699,7 @@
         <v>1984</v>
       </c>
       <c r="F18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G18">
         <v>39</v>
@@ -2711,7 +2711,7 @@
         <v>66</v>
       </c>
       <c r="J18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K18">
         <v>55</v>
@@ -2803,13 +2803,13 @@
     </row>
     <row r="19" spans="1:39">
       <c r="A19">
-        <v>19652</v>
+        <v>19651</v>
       </c>
       <c r="B19" t="s">
         <v>56</v>
       </c>
       <c r="C19">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="D19" t="s">
         <v>61</v>
@@ -2818,7 +2818,7 @@
         <v>1984</v>
       </c>
       <c r="F19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G19">
         <v>21</v>
@@ -2922,13 +2922,13 @@
     </row>
     <row r="20" spans="1:39">
       <c r="A20">
-        <v>20211</v>
+        <v>32276</v>
       </c>
       <c r="B20" t="s">
         <v>57</v>
       </c>
       <c r="C20">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="D20" t="s">
         <v>61</v>
@@ -2937,94 +2937,94 @@
         <v>1984</v>
       </c>
       <c r="F20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G20">
+        <v>41</v>
+      </c>
+      <c r="H20">
         <v>22</v>
-      </c>
-      <c r="H20">
-        <v>3</v>
       </c>
       <c r="I20" t="s">
         <v>66</v>
       </c>
       <c r="J20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K20">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="L20">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="M20">
-        <v>42.5</v>
+        <v>34.5</v>
       </c>
       <c r="N20">
-        <v>11.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="O20">
-        <v>23.1</v>
+        <v>18.1</v>
       </c>
       <c r="P20">
-        <v>0.48</v>
+        <v>0.516</v>
       </c>
       <c r="Q20">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="R20">
-        <v>4.8</v>
+        <v>5.6</v>
       </c>
       <c r="S20">
-        <v>0.335</v>
+        <v>0.395</v>
       </c>
       <c r="T20">
-        <v>9.5</v>
+        <v>7.1</v>
       </c>
       <c r="U20">
-        <v>18.3</v>
+        <v>12.4</v>
       </c>
       <c r="V20">
-        <v>0.518</v>
+        <v>0.571</v>
       </c>
       <c r="W20">
-        <v>0.515</v>
+        <v>0.578</v>
       </c>
       <c r="X20">
-        <v>7.6</v>
+        <v>3.4</v>
       </c>
       <c r="Y20">
-        <v>10.3</v>
+        <v>4.5</v>
       </c>
       <c r="Z20">
-        <v>0.738</v>
+        <v>0.759</v>
       </c>
       <c r="AA20">
         <v>0.9</v>
       </c>
       <c r="AB20">
-        <v>6.1</v>
+        <v>6.9</v>
       </c>
       <c r="AC20">
-        <v>7</v>
+        <v>7.7</v>
       </c>
       <c r="AD20">
-        <v>6.6</v>
+        <v>9</v>
       </c>
       <c r="AE20">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="AF20">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AG20">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="AH20">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="AI20">
-        <v>31.4</v>
+        <v>24.3</v>
       </c>
       <c r="AJ20" t="s">
         <v>88</v>
@@ -3036,18 +3036,18 @@
         <v>92</v>
       </c>
       <c r="AM20">
-        <v>2006</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="21" spans="1:39">
       <c r="A21">
-        <v>27322</v>
+        <v>21319</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
       </c>
       <c r="C21">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="D21" t="s">
         <v>61</v>
@@ -3059,10 +3059,10 @@
         <v>63</v>
       </c>
       <c r="G21">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="H21">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I21" t="s">
         <v>66</v>
@@ -3071,79 +3071,79 @@
         <v>67</v>
       </c>
       <c r="K21">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="L21">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="M21">
-        <v>36.9</v>
+        <v>40.4</v>
       </c>
       <c r="N21">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="O21">
-        <v>19.3</v>
+        <v>21.9</v>
       </c>
       <c r="P21">
-        <v>0.542</v>
+        <v>0.484</v>
       </c>
       <c r="Q21">
+        <v>1.5</v>
+      </c>
+      <c r="R21">
+        <v>4.8</v>
+      </c>
+      <c r="S21">
+        <v>0.315</v>
+      </c>
+      <c r="T21">
+        <v>9.1</v>
+      </c>
+      <c r="U21">
+        <v>17.1</v>
+      </c>
+      <c r="V21">
+        <v>0.531</v>
+      </c>
+      <c r="W21">
+        <v>0.518</v>
+      </c>
+      <c r="X21">
+        <v>7.3</v>
+      </c>
+      <c r="Y21">
+        <v>10.3</v>
+      </c>
+      <c r="Z21">
+        <v>0.712</v>
+      </c>
+      <c r="AA21">
         <v>1.8</v>
       </c>
-      <c r="R21">
-        <v>5</v>
-      </c>
-      <c r="S21">
-        <v>0.367</v>
-      </c>
-      <c r="T21">
-        <v>8.6</v>
-      </c>
-      <c r="U21">
-        <v>14.3</v>
-      </c>
-      <c r="V21">
-        <v>0.603</v>
-      </c>
-      <c r="W21">
-        <v>0.59</v>
-      </c>
-      <c r="X21">
-        <v>4.7</v>
-      </c>
-      <c r="Y21">
-        <v>6.5</v>
-      </c>
-      <c r="Z21">
-        <v>0.731</v>
-      </c>
-      <c r="AA21">
-        <v>1.2</v>
-      </c>
       <c r="AB21">
-        <v>7.5</v>
+        <v>6.1</v>
       </c>
       <c r="AC21">
-        <v>8.6</v>
+        <v>7.9</v>
       </c>
       <c r="AD21">
-        <v>9.1</v>
+        <v>7.2</v>
       </c>
       <c r="AE21">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="AF21">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="AG21">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="AH21">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="AI21">
-        <v>27.5</v>
+        <v>30</v>
       </c>
       <c r="AJ21" t="s">
         <v>89</v>
@@ -3155,18 +3155,18 @@
         <v>92</v>
       </c>
       <c r="AM21">
-        <v>2018</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="22" spans="1:39">
       <c r="A22">
-        <v>23706</v>
+        <v>24274</v>
       </c>
       <c r="B22" t="s">
         <v>59</v>
       </c>
       <c r="C22">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="D22" t="s">
         <v>61</v>
@@ -3178,91 +3178,91 @@
         <v>64</v>
       </c>
       <c r="G22">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H22">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I22" t="s">
         <v>66</v>
       </c>
       <c r="J22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K22">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="L22">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="M22">
-        <v>37.5</v>
+        <v>37.9</v>
       </c>
       <c r="N22">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="O22">
-        <v>18.9</v>
+        <v>17.8</v>
       </c>
       <c r="P22">
-        <v>0.531</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="Q22">
+        <v>1.4</v>
+      </c>
+      <c r="R22">
+        <v>3.3</v>
+      </c>
+      <c r="S22">
+        <v>0.406</v>
+      </c>
+      <c r="T22">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="U22">
+        <v>14.5</v>
+      </c>
+      <c r="V22">
+        <v>0.602</v>
+      </c>
+      <c r="W22">
+        <v>0.603</v>
+      </c>
+      <c r="X22">
+        <v>5.3</v>
+      </c>
+      <c r="Y22">
+        <v>7</v>
+      </c>
+      <c r="Z22">
+        <v>0.753</v>
+      </c>
+      <c r="AA22">
+        <v>1.3</v>
+      </c>
+      <c r="AB22">
+        <v>6.8</v>
+      </c>
+      <c r="AC22">
+        <v>8</v>
+      </c>
+      <c r="AD22">
+        <v>7.3</v>
+      </c>
+      <c r="AE22">
+        <v>1.7</v>
+      </c>
+      <c r="AF22">
         <v>0.9</v>
       </c>
-      <c r="R22">
-        <v>2.4</v>
-      </c>
-      <c r="S22">
-        <v>0.362</v>
-      </c>
-      <c r="T22">
-        <v>9.1</v>
-      </c>
-      <c r="U22">
-        <v>16.5</v>
-      </c>
-      <c r="V22">
-        <v>0.556</v>
-      </c>
-      <c r="W22">
-        <v>0.554</v>
-      </c>
-      <c r="X22">
-        <v>6.2</v>
-      </c>
-      <c r="Y22">
-        <v>8.1</v>
-      </c>
-      <c r="Z22">
-        <v>0.771</v>
-      </c>
-      <c r="AA22">
-        <v>1.5</v>
-      </c>
-      <c r="AB22">
-        <v>6.4</v>
-      </c>
-      <c r="AC22">
-        <v>7.9</v>
-      </c>
-      <c r="AD22">
-        <v>6.2</v>
-      </c>
-      <c r="AE22">
-        <v>1.9</v>
-      </c>
-      <c r="AF22">
-        <v>0.8</v>
-      </c>
       <c r="AG22">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="AH22">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AI22">
-        <v>27.1</v>
+        <v>26.8</v>
       </c>
       <c r="AJ22" t="s">
         <v>90</v>
@@ -3274,18 +3274,18 @@
         <v>92</v>
       </c>
       <c r="AM22">
-        <v>2012</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="23" spans="1:39">
       <c r="A23">
-        <v>26107</v>
+        <v>26106</v>
       </c>
       <c r="B23" t="s">
         <v>60</v>
       </c>
       <c r="C23">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="D23" t="s">
         <v>61</v>
@@ -3294,7 +3294,7 @@
         <v>1984</v>
       </c>
       <c r="F23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G23">
         <v>32</v>
